--- a/res/data.xlsx
+++ b/res/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roman Zheludkov\IdeaProjects\SIEMENS\DesigoCCSpecifier_v5\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java\SIEMENS\DesigoCCSpecifier_v5\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BFC732-08A2-4F53-9441-2BF9142F3CE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AAE87D-FA69-43F5-A1C5-C2C471078C32}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24195" yWindow="645" windowWidth="22725" windowHeight="14955" activeTab="3" xr2:uid="{C2550A99-4CE5-415F-8594-E50E570FAC6E}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="7" xr2:uid="{C2550A99-4CE5-415F-8594-E50E570FAC6E}"/>
   </bookViews>
   <sheets>
     <sheet name="version" sheetId="1" r:id="rId1"/>
@@ -23,26 +23,21 @@
     <sheet name="price_list" sheetId="7" r:id="rId8"/>
     <sheet name="building_types" sheetId="12" r:id="rId9"/>
     <sheet name="CerberusPRO_matrix" sheetId="8" r:id="rId10"/>
-    <sheet name="SiPass_matrix" sheetId="9" r:id="rId11"/>
-    <sheet name="SPC_matrix" sheetId="10" r:id="rId12"/>
+    <sheet name="CerberusPace_matrix" sheetId="13" r:id="rId11"/>
+    <sheet name="SiPass_matrix" sheetId="9" r:id="rId12"/>
+    <sheet name="SPC_matrix" sheetId="10" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="999">
   <si>
     <t>Просмотр графики</t>
   </si>
@@ -62,9 +57,6 @@
     <t>Долгосрочные хранилища</t>
   </si>
   <si>
-    <t>Удаленные уведомления (СМС, E-mail, пйджер)</t>
-  </si>
-  <si>
     <t>Отчеты</t>
   </si>
   <si>
@@ -89,9 +81,6 @@
     <t>Логика (реакции по событиям/COV, скрипты JavaScript)</t>
   </si>
   <si>
-    <t>Отчеты валидация</t>
-  </si>
-  <si>
     <t>OPC DA сервер</t>
   </si>
   <si>
@@ -1712,9 +1701,6 @@
     <t>S54400-C87-A1</t>
   </si>
   <si>
-    <t>A5Q00014866</t>
-  </si>
-  <si>
     <t>S54400-A6-A1</t>
   </si>
   <si>
@@ -1763,9 +1749,6 @@
     <t>S54329-F5-A1</t>
   </si>
   <si>
-    <t>A5Q00013434</t>
-  </si>
-  <si>
     <t>A5Q00012020</t>
   </si>
   <si>
@@ -2063,9 +2046,6 @@
     <t>FC726-ZA</t>
   </si>
   <si>
-    <t>FCA2005-A1</t>
-  </si>
-  <si>
     <t>FCI2008-A1</t>
   </si>
   <si>
@@ -2114,9 +2094,6 @@
     <t>FDM223-EX</t>
   </si>
   <si>
-    <t>FDM225-RG</t>
-  </si>
-  <si>
     <t>FDM225-RP</t>
   </si>
   <si>
@@ -2243,12 +2220,6 @@
     <t>Инженерный ключ с лицензией</t>
   </si>
   <si>
-    <t>Desigo CC v.4.1</t>
-  </si>
-  <si>
-    <t>Модель данных: 06.11.2019</t>
-  </si>
-  <si>
     <t>Базовый пакет шлюза данных (новые системы, миграция MK8000)</t>
   </si>
   <si>
@@ -2261,9 +2232,6 @@
     <t>DNA-NO-BS</t>
   </si>
   <si>
-    <t>Лицензия интеграции Cerberus PACE в DesigoCC</t>
-  </si>
-  <si>
     <t>DCC NOVIGO INTEGR DRIVER Base</t>
   </si>
   <si>
@@ -2430,12 +2398,651 @@
   </si>
   <si>
     <t>2000096648</t>
+  </si>
+  <si>
+    <t>A5Q00017706</t>
+  </si>
+  <si>
+    <t>FT2011-A1</t>
+  </si>
+  <si>
+    <t>A5Q00014417</t>
+  </si>
+  <si>
+    <t>FT2001-A1</t>
+  </si>
+  <si>
+    <t>S54400-A14-A1</t>
+  </si>
+  <si>
+    <t>FT2003-N1</t>
+  </si>
+  <si>
+    <t>A5Q00004811</t>
+  </si>
+  <si>
+    <t>FDO241</t>
+  </si>
+  <si>
+    <t>A5Q00001565</t>
+  </si>
+  <si>
+    <t>FDO221</t>
+  </si>
+  <si>
+    <t>A5Q00001566</t>
+  </si>
+  <si>
+    <t>FDOOT221</t>
+  </si>
+  <si>
+    <t>S54310-F10-A1</t>
+  </si>
+  <si>
+    <t>FDOOT241-A3</t>
+  </si>
+  <si>
+    <t>S54310-F11-A1</t>
+  </si>
+  <si>
+    <t>FDOOT241-A9</t>
+  </si>
+  <si>
+    <t>S54310-F14-A1</t>
+  </si>
+  <si>
+    <t>FDOOT241-A5</t>
+  </si>
+  <si>
+    <t>A5Q00004663</t>
+  </si>
+  <si>
+    <t>FDOOT241-8</t>
+  </si>
+  <si>
+    <t>S54310-F9-A1</t>
+  </si>
+  <si>
+    <t>FDOOT241-A4</t>
+  </si>
+  <si>
+    <t>S54311-F1-A1</t>
+  </si>
+  <si>
+    <t>FDOOTC241</t>
+  </si>
+  <si>
+    <t>S54329-F7-A1</t>
+  </si>
+  <si>
+    <t>FDOOT241-A9-EX</t>
+  </si>
+  <si>
+    <t>S54310-F13-A1</t>
+  </si>
+  <si>
+    <t>FDOOT241-A</t>
+  </si>
+  <si>
+    <t>A5Q00004813</t>
+  </si>
+  <si>
+    <t>FDOOT241-9</t>
+  </si>
+  <si>
+    <t>A5Q00016038</t>
+  </si>
+  <si>
+    <t>FDOOT241-8M</t>
+  </si>
+  <si>
+    <t>A5Q00015955</t>
+  </si>
+  <si>
+    <t>FDOOT241-9M</t>
+  </si>
+  <si>
+    <t>A5Q00015956</t>
+  </si>
+  <si>
+    <t>FDOOT241-8B</t>
+  </si>
+  <si>
+    <t>S54311-F8-A1</t>
+  </si>
+  <si>
+    <t>FDM243H</t>
+  </si>
+  <si>
+    <t>S54311-F9-A1</t>
+  </si>
+  <si>
+    <t>FDM233</t>
+  </si>
+  <si>
+    <t>S54311-F11-A1</t>
+  </si>
+  <si>
+    <t>FDM231-RP</t>
+  </si>
+  <si>
+    <t>A5Q00004812</t>
+  </si>
+  <si>
+    <t>FDT241</t>
+  </si>
+  <si>
+    <t>A5Q00001567</t>
+  </si>
+  <si>
+    <t>FDT221</t>
+  </si>
+  <si>
+    <t>S54312-F6-A1</t>
+  </si>
+  <si>
+    <t>FDCL221-M</t>
+  </si>
+  <si>
+    <t>A5Q00004011</t>
+  </si>
+  <si>
+    <t>FDCL221</t>
+  </si>
+  <si>
+    <t>S54329-F4-A1</t>
+  </si>
+  <si>
+    <t>FDCL221-EX</t>
+  </si>
+  <si>
+    <t>S54400-B152-A1</t>
+  </si>
+  <si>
+    <t>FN2012-A1</t>
+  </si>
+  <si>
+    <t>S54392-S20-A1</t>
+  </si>
+  <si>
+    <t>XCA2005-A1</t>
+  </si>
+  <si>
+    <t>S54322-F5-A1</t>
+  </si>
+  <si>
+    <t>FDCI223</t>
+  </si>
+  <si>
+    <t>S54319-F5-A1</t>
+  </si>
+  <si>
+    <t>DBS720</t>
+  </si>
+  <si>
+    <t>A5Q00013755</t>
+  </si>
+  <si>
+    <t>FDSB292</t>
+  </si>
+  <si>
+    <t>S54364-F2-A1</t>
+  </si>
+  <si>
+    <t>FDS224-W</t>
+  </si>
+  <si>
+    <t>S54364-F1-A1</t>
+  </si>
+  <si>
+    <t>FDS224-R</t>
+  </si>
+  <si>
+    <t>S54372-F14-B1</t>
+  </si>
+  <si>
+    <t>DBS728</t>
+  </si>
+  <si>
+    <t>S54372-F17-B1</t>
+  </si>
+  <si>
+    <t>FDSB228</t>
+  </si>
+  <si>
+    <t>S54364-F8-A1</t>
+  </si>
+  <si>
+    <t>FDS226-WW</t>
+  </si>
+  <si>
+    <t>S54364-F14-A1</t>
+  </si>
+  <si>
+    <t>FDSB226-WW</t>
+  </si>
+  <si>
+    <t>S54364-F7-A1</t>
+  </si>
+  <si>
+    <t>FDS226-WR</t>
+  </si>
+  <si>
+    <t>S54364-F13-A1</t>
+  </si>
+  <si>
+    <t>FDSB226-WR</t>
+  </si>
+  <si>
+    <t>S54364-F12-A1</t>
+  </si>
+  <si>
+    <t>FDS227-WW</t>
+  </si>
+  <si>
+    <t>S54364-F16-A1</t>
+  </si>
+  <si>
+    <t>FDSB227-WW</t>
+  </si>
+  <si>
+    <t>S54364-F11-A1</t>
+  </si>
+  <si>
+    <t>FDS227-WR</t>
+  </si>
+  <si>
+    <t>S54364-F15-A1</t>
+  </si>
+  <si>
+    <t>FDSB227-WR</t>
+  </si>
+  <si>
+    <t>S54364-F6-A1</t>
+  </si>
+  <si>
+    <t>FDS226-RW</t>
+  </si>
+  <si>
+    <t>S54364-F5-A1</t>
+  </si>
+  <si>
+    <t>FDS226-RR</t>
+  </si>
+  <si>
+    <t>S54364-F10-A1</t>
+  </si>
+  <si>
+    <t>FDS227-RW</t>
+  </si>
+  <si>
+    <t>S54364-F9-A1</t>
+  </si>
+  <si>
+    <t>FDS227-RR</t>
+  </si>
+  <si>
+    <t>S54364-F4-A1</t>
+  </si>
+  <si>
+    <t>FDS225-W</t>
+  </si>
+  <si>
+    <t>S54364-F3-A1</t>
+  </si>
+  <si>
+    <t>FDS225-R</t>
+  </si>
+  <si>
+    <t>S54400-B17-A1</t>
+  </si>
+  <si>
+    <t>FCC2002-A1</t>
+  </si>
+  <si>
+    <t>S54400-C32-A2</t>
+  </si>
+  <si>
+    <t>FC721-ZZ</t>
+  </si>
+  <si>
+    <t>S54400-C32-A3</t>
+  </si>
+  <si>
+    <t>FC721-YZ</t>
+  </si>
+  <si>
+    <t>A5Q00015550</t>
+  </si>
+  <si>
+    <t>FC2020-AZ</t>
+  </si>
+  <si>
+    <t>A5Q00016827</t>
+  </si>
+  <si>
+    <t>FC2020-EZ</t>
+  </si>
+  <si>
+    <t>A5Q00016829</t>
+  </si>
+  <si>
+    <t>FC2020-AA</t>
+  </si>
+  <si>
+    <t>A5Q00016851</t>
+  </si>
+  <si>
+    <t>FC2020-AE</t>
+  </si>
+  <si>
+    <t>A5Q00016100</t>
+  </si>
+  <si>
+    <t>FC2040-AA</t>
+  </si>
+  <si>
+    <t>A5Q00016852</t>
+  </si>
+  <si>
+    <t>FC2040-AE</t>
+  </si>
+  <si>
+    <t>A5Q00016854</t>
+  </si>
+  <si>
+    <t>FC2040-AG</t>
+  </si>
+  <si>
+    <t>A5Q00023048</t>
+  </si>
+  <si>
+    <t>FC2060-AA</t>
+  </si>
+  <si>
+    <t>S54400-C2-A1</t>
+  </si>
+  <si>
+    <t>FC2030-AA</t>
+  </si>
+  <si>
+    <t>S54400-A20-A1</t>
+  </si>
+  <si>
+    <t>FCI2007-A1</t>
+  </si>
+  <si>
+    <t>S54392-A7-A1</t>
+  </si>
+  <si>
+    <t>XCI2005-A1</t>
+  </si>
+  <si>
+    <t>A5Q00014104</t>
+  </si>
+  <si>
+    <t>FT2010-A1</t>
+  </si>
+  <si>
+    <t>S54400-F34-A1</t>
+  </si>
+  <si>
+    <t>FT2010-C1</t>
+  </si>
+  <si>
+    <t>S54392-B18-A1</t>
+  </si>
+  <si>
+    <t>XCM7202-Z3</t>
+  </si>
+  <si>
+    <t>S54392-B3-A1</t>
+  </si>
+  <si>
+    <t>XCM2002-A2</t>
+  </si>
+  <si>
+    <t>S54392-B4-A1</t>
+  </si>
+  <si>
+    <t>XCM2003-A2</t>
+  </si>
+  <si>
+    <t>S54311-B4-A1</t>
+  </si>
+  <si>
+    <t>FDME234</t>
+  </si>
+  <si>
+    <t>S54311-B5-A1</t>
+  </si>
+  <si>
+    <t>FDME233</t>
+  </si>
+  <si>
+    <t>S54311-B14-A1</t>
+  </si>
+  <si>
+    <t>FDME231</t>
+  </si>
+  <si>
+    <t>S54323-B108-A1</t>
+  </si>
+  <si>
+    <t>FDME273</t>
+  </si>
+  <si>
+    <t>S54451-B1-A1</t>
+  </si>
+  <si>
+    <t>PC2001-A1</t>
+  </si>
+  <si>
+    <t>S54451-B15-A1</t>
+  </si>
+  <si>
+    <t>PV2001-A1</t>
+  </si>
+  <si>
+    <t>S54451-B17-A1</t>
+  </si>
+  <si>
+    <t>PV2003-A1</t>
+  </si>
+  <si>
+    <t>S54451-B2-A1</t>
+  </si>
+  <si>
+    <t>PC2002-A1</t>
+  </si>
+  <si>
+    <t>S54451-B26-A1</t>
+  </si>
+  <si>
+    <t>PCA2008-A1</t>
+  </si>
+  <si>
+    <t>S54451-B27-A1</t>
+  </si>
+  <si>
+    <t>PCO2001-A1</t>
+  </si>
+  <si>
+    <t>S54451-B28-A1</t>
+  </si>
+  <si>
+    <t>PCIO2001-A1</t>
+  </si>
+  <si>
+    <t>S54451-B3-A1</t>
+  </si>
+  <si>
+    <t>PC2003-A1</t>
+  </si>
+  <si>
+    <t>S54451-B34-A1</t>
+  </si>
+  <si>
+    <t>PV2007-A1</t>
+  </si>
+  <si>
+    <t>S54451-B4-A1</t>
+  </si>
+  <si>
+    <t>PN2001-A1</t>
+  </si>
+  <si>
+    <t>S54451-B6-A1</t>
+  </si>
+  <si>
+    <t>PT2001-A1</t>
+  </si>
+  <si>
+    <t>S54451-B7-A1</t>
+  </si>
+  <si>
+    <t>PTO2001-A1</t>
+  </si>
+  <si>
+    <t>S54451-B8-A1</t>
+  </si>
+  <si>
+    <t>PTO2002-A1</t>
+  </si>
+  <si>
+    <t>P5493-Y195-A300</t>
+  </si>
+  <si>
+    <t>Расширенные уведомления (RenoPlus)</t>
+  </si>
+  <si>
+    <t>CCA-M-RENOPLUS</t>
+  </si>
+  <si>
+    <t>Задачи оператора</t>
+  </si>
+  <si>
+    <t>Отчеты валидация (Pharma)</t>
+  </si>
+  <si>
+    <t>BACnet сервер</t>
+  </si>
+  <si>
+    <t>Удаленные уведомления (СМС, E-mail, пейджер)</t>
+  </si>
+  <si>
+    <t>P55802-Y156-A415</t>
+  </si>
+  <si>
+    <t>CCA-100000-ELEC</t>
+  </si>
+  <si>
+    <t>Desigo CC Электроснабжение на 100000 точек</t>
+  </si>
+  <si>
+    <t>P55802-Y156-A434</t>
+  </si>
+  <si>
+    <t>CCA-30000-ELEC</t>
+  </si>
+  <si>
+    <t>Desigo CC Электроснабжение на 30000 точек</t>
+  </si>
+  <si>
+    <t>P54593-Y192-A452</t>
+  </si>
+  <si>
+    <t>CCA-M-ADD-500R</t>
+  </si>
+  <si>
+    <t>P54593-Y193-A424</t>
+  </si>
+  <si>
+    <t>CCA-M-ADD-20KR</t>
+  </si>
+  <si>
+    <t>P54593-Y194-A410</t>
+  </si>
+  <si>
+    <t>CCA-M-ADD-1CO</t>
+  </si>
+  <si>
+    <t>Desigo CC Расширение MNS на 1 коннектор (v.4.2)</t>
+  </si>
+  <si>
+    <t>P54593-Y195-A300</t>
+  </si>
+  <si>
+    <t>Desigo CC Удаленное оповещение RenoPlus (v.4.2)</t>
+  </si>
+  <si>
+    <t>P54593-Y196-A300</t>
+  </si>
+  <si>
+    <t>CCA-M-MNS</t>
+  </si>
+  <si>
+    <t>Desigo CC Глобальное оповещение MNS (v.4.2)</t>
+  </si>
+  <si>
+    <t>New License add. 500 MNS recipients</t>
+  </si>
+  <si>
+    <t>Desigo CC Расширение RenoPlus на 500 получателей (v.4.2)</t>
+  </si>
+  <si>
+    <t>New License add. 20000 MNS recipients</t>
+  </si>
+  <si>
+    <t>Desigo CC Расширение RenoPlus на 20'000 получателей (v.4.2)</t>
+  </si>
+  <si>
+    <t>New License add. 1 Connector</t>
+  </si>
+  <si>
+    <t>New License for RenoPlus</t>
+  </si>
+  <si>
+    <t>New License for MNS</t>
+  </si>
+  <si>
+    <t>Desigo CC Драйвер для интеграции Cerberus PACE</t>
+  </si>
+  <si>
+    <t>Desigo CC v.5.0</t>
+  </si>
+  <si>
+    <t>Модель данных: 09.05.2021</t>
+  </si>
+  <si>
+    <t>Компонент продления подписки</t>
+  </si>
+  <si>
+    <t>Компонент возобновления подписки</t>
+  </si>
+  <si>
+    <t>SUR</t>
+  </si>
+  <si>
+    <t>SUS</t>
+  </si>
+  <si>
+    <t>Продление подписки (SiteValue на 1 год)</t>
+  </si>
+  <si>
+    <t>Возобновление подписки (SiteValue на 1 год)</t>
+  </si>
+  <si>
+    <t>SNMP агент</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#\ ##0.00\ [$€-1];[Red]#\ ##0.00\ [$€-1]"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2482,7 +3089,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2508,6 +3115,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2828,7 +3445,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2838,12 +3455,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>733</v>
+        <v>990</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>734</v>
+        <v>991</v>
       </c>
     </row>
   </sheetData>
@@ -2853,704 +3470,704 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66BEEDC-675C-4F95-91D3-548EBF0F2EEF}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K32" sqref="K31:K32"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="G143" sqref="G143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
     <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B1" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C1" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D1" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>548</v>
+        <v>787</v>
       </c>
       <c r="B2" t="s">
-        <v>665</v>
+        <v>788</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>549</v>
+        <v>789</v>
       </c>
       <c r="B3" t="s">
-        <v>666</v>
+        <v>790</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>550</v>
+        <v>791</v>
       </c>
       <c r="B4" t="s">
-        <v>667</v>
+        <v>792</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="B5" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="B6" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>553</v>
+        <v>587</v>
       </c>
       <c r="B7" t="s">
-        <v>670</v>
+        <v>702</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>554</v>
+        <v>793</v>
       </c>
       <c r="B8" t="s">
-        <v>671</v>
+        <v>794</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>555</v>
+        <v>795</v>
       </c>
       <c r="B9" t="s">
-        <v>672</v>
+        <v>796</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="B10" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>557</v>
+        <v>583</v>
       </c>
       <c r="B11" t="s">
-        <v>674</v>
+        <v>698</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>558</v>
+        <v>797</v>
       </c>
       <c r="B12" t="s">
-        <v>675</v>
+        <v>798</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="B13" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>560</v>
+        <v>799</v>
       </c>
       <c r="B14" t="s">
-        <v>677</v>
+        <v>800</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>561</v>
+        <v>801</v>
       </c>
       <c r="B15" t="s">
-        <v>678</v>
+        <v>802</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>562</v>
+        <v>803</v>
       </c>
       <c r="B16" t="s">
-        <v>679</v>
+        <v>804</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>563</v>
+        <v>805</v>
       </c>
       <c r="B17" t="s">
-        <v>680</v>
+        <v>806</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>564</v>
+        <v>807</v>
       </c>
       <c r="B18" t="s">
-        <v>681</v>
+        <v>808</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>565</v>
+        <v>584</v>
       </c>
       <c r="B19" t="s">
-        <v>682</v>
+        <v>699</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>566</v>
+        <v>586</v>
       </c>
       <c r="B20" t="s">
-        <v>683</v>
+        <v>701</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>567</v>
+        <v>809</v>
       </c>
       <c r="B21" t="s">
-        <v>684</v>
+        <v>810</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>568</v>
+        <v>585</v>
       </c>
       <c r="B22" t="s">
-        <v>685</v>
+        <v>700</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>569</v>
+        <v>811</v>
       </c>
       <c r="B23" t="s">
-        <v>686</v>
+        <v>812</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>570</v>
+        <v>813</v>
       </c>
       <c r="B24" t="s">
-        <v>687</v>
+        <v>814</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>571</v>
+        <v>815</v>
       </c>
       <c r="B25" t="s">
-        <v>688</v>
+        <v>816</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>572</v>
+        <v>817</v>
       </c>
       <c r="B26" t="s">
-        <v>689</v>
+        <v>818</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>573</v>
+        <v>819</v>
       </c>
       <c r="B27" t="s">
-        <v>690</v>
+        <v>820</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>574</v>
+        <v>821</v>
       </c>
       <c r="B28" t="s">
-        <v>691</v>
+        <v>822</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="B29" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B30" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="B31" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="B32" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>579</v>
+        <v>823</v>
       </c>
       <c r="B33" t="s">
-        <v>696</v>
+        <v>824</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>580</v>
+        <v>825</v>
       </c>
       <c r="B34" t="s">
-        <v>697</v>
+        <v>826</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>581</v>
+        <v>827</v>
       </c>
       <c r="B35" t="s">
-        <v>698</v>
+        <v>828</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="B36" t="s">
-        <v>699</v>
+        <v>684</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="B37" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>584</v>
+        <v>829</v>
       </c>
       <c r="B38" t="s">
-        <v>701</v>
+        <v>830</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="B39" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>586</v>
+        <v>831</v>
       </c>
       <c r="B40" t="s">
-        <v>703</v>
+        <v>832</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>587</v>
+        <v>833</v>
       </c>
       <c r="B41" t="s">
-        <v>704</v>
+        <v>834</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>588</v>
+        <v>835</v>
       </c>
       <c r="B42" t="s">
-        <v>705</v>
+        <v>836</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>589</v>
+        <v>837</v>
       </c>
       <c r="B43" t="s">
-        <v>706</v>
+        <v>838</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>590</v>
+        <v>839</v>
       </c>
       <c r="B44" t="s">
-        <v>707</v>
+        <v>840</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>591</v>
+        <v>841</v>
       </c>
       <c r="B45" t="s">
-        <v>708</v>
+        <v>842</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D45" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>592</v>
+        <v>562</v>
       </c>
       <c r="B46" t="s">
-        <v>709</v>
+        <v>677</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>593</v>
+        <v>559</v>
       </c>
       <c r="B47" t="s">
-        <v>710</v>
+        <v>674</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>594</v>
+        <v>561</v>
       </c>
       <c r="B48" t="s">
-        <v>711</v>
+        <v>676</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>595</v>
+        <v>843</v>
       </c>
       <c r="B49" t="s">
-        <v>712</v>
+        <v>844</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -3558,18 +4175,18 @@
         <v>560</v>
       </c>
       <c r="B50" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C50">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B51" t="s">
         <v>678</v>
@@ -3578,21 +4195,973 @@
         <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>596</v>
+        <v>565</v>
       </c>
       <c r="B52" t="s">
-        <v>713</v>
+        <v>680</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>564</v>
+      </c>
+      <c r="B53" t="s">
+        <v>679</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>591</v>
+      </c>
+      <c r="B54" t="s">
+        <v>706</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>580</v>
+      </c>
+      <c r="B55" t="s">
+        <v>695</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>845</v>
+      </c>
+      <c r="B56" t="s">
+        <v>846</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>582</v>
+      </c>
+      <c r="B57" t="s">
+        <v>697</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>847</v>
+      </c>
+      <c r="B58" t="s">
+        <v>848</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>849</v>
+      </c>
+      <c r="B59" t="s">
+        <v>850</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>577</v>
+      </c>
+      <c r="B60" t="s">
+        <v>692</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>851</v>
+      </c>
+      <c r="B61" t="s">
+        <v>852</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>576</v>
+      </c>
+      <c r="B62" t="s">
+        <v>691</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>590</v>
+      </c>
+      <c r="B63" t="s">
+        <v>705</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>853</v>
+      </c>
+      <c r="B64" t="s">
+        <v>854</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>581</v>
+      </c>
+      <c r="B65" t="s">
+        <v>696</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>855</v>
+      </c>
+      <c r="B66" t="s">
+        <v>856</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>857</v>
+      </c>
+      <c r="B67" t="s">
+        <v>858</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>859</v>
+      </c>
+      <c r="B68" t="s">
+        <v>860</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>861</v>
+      </c>
+      <c r="B69" t="s">
+        <v>862</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>863</v>
+      </c>
+      <c r="B70" t="s">
+        <v>864</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>865</v>
+      </c>
+      <c r="B71" t="s">
+        <v>866</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>867</v>
+      </c>
+      <c r="B72" t="s">
+        <v>868</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>869</v>
+      </c>
+      <c r="B73" t="s">
+        <v>870</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>871</v>
+      </c>
+      <c r="B74" t="s">
+        <v>872</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>873</v>
+      </c>
+      <c r="B75" t="s">
+        <v>874</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>875</v>
+      </c>
+      <c r="B76" t="s">
+        <v>876</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>579</v>
+      </c>
+      <c r="B77" t="s">
+        <v>694</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>877</v>
+      </c>
+      <c r="B78" t="s">
+        <v>878</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>879</v>
+      </c>
+      <c r="B79" t="s">
+        <v>880</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>578</v>
+      </c>
+      <c r="B80" t="s">
+        <v>693</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>881</v>
+      </c>
+      <c r="B81" t="s">
+        <v>882</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>883</v>
+      </c>
+      <c r="B82" t="s">
+        <v>884</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>592</v>
+      </c>
+      <c r="B83" t="s">
+        <v>707</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>885</v>
+      </c>
+      <c r="B84" t="s">
+        <v>886</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>887</v>
+      </c>
+      <c r="B85" t="s">
+        <v>888</v>
+      </c>
+      <c r="C85">
+        <v>10</v>
+      </c>
+      <c r="D85" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>889</v>
+      </c>
+      <c r="B86" t="s">
+        <v>890</v>
+      </c>
+      <c r="C86">
+        <v>10</v>
+      </c>
+      <c r="D86" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>547</v>
+      </c>
+      <c r="B87" t="s">
+        <v>662</v>
+      </c>
+      <c r="C87">
+        <v>15</v>
+      </c>
+      <c r="D87" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>546</v>
+      </c>
+      <c r="B88" t="s">
+        <v>661</v>
+      </c>
+      <c r="C88">
+        <v>15</v>
+      </c>
+      <c r="D88" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>548</v>
+      </c>
+      <c r="B89" t="s">
+        <v>663</v>
+      </c>
+      <c r="C89">
+        <v>15</v>
+      </c>
+      <c r="D89" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>549</v>
+      </c>
+      <c r="B90" t="s">
+        <v>664</v>
+      </c>
+      <c r="C90">
+        <v>15</v>
+      </c>
+      <c r="D90" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>891</v>
+      </c>
+      <c r="B91" t="s">
+        <v>892</v>
+      </c>
+      <c r="C91">
+        <v>15</v>
+      </c>
+      <c r="D91" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>893</v>
+      </c>
+      <c r="B92" t="s">
+        <v>894</v>
+      </c>
+      <c r="C92">
+        <v>15</v>
+      </c>
+      <c r="D92" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>895</v>
+      </c>
+      <c r="B93" t="s">
+        <v>896</v>
+      </c>
+      <c r="C93">
+        <v>15</v>
+      </c>
+      <c r="D93" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>897</v>
+      </c>
+      <c r="B94" t="s">
+        <v>898</v>
+      </c>
+      <c r="C94">
+        <v>15</v>
+      </c>
+      <c r="D94" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>551</v>
+      </c>
+      <c r="B95" t="s">
+        <v>666</v>
+      </c>
+      <c r="C95">
+        <v>20</v>
+      </c>
+      <c r="D95" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>552</v>
+      </c>
+      <c r="B96" t="s">
+        <v>667</v>
+      </c>
+      <c r="C96">
+        <v>20</v>
+      </c>
+      <c r="D96" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>899</v>
+      </c>
+      <c r="B97" t="s">
+        <v>900</v>
+      </c>
+      <c r="C97">
+        <v>20</v>
+      </c>
+      <c r="D97" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>901</v>
+      </c>
+      <c r="B98" t="s">
+        <v>902</v>
+      </c>
+      <c r="C98">
+        <v>20</v>
+      </c>
+      <c r="D98" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>903</v>
+      </c>
+      <c r="B99" t="s">
+        <v>904</v>
+      </c>
+      <c r="C99">
+        <v>20</v>
+      </c>
+      <c r="D99" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>553</v>
+      </c>
+      <c r="B100" t="s">
+        <v>668</v>
+      </c>
+      <c r="C100">
+        <v>20</v>
+      </c>
+      <c r="D100" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>550</v>
+      </c>
+      <c r="B101" t="s">
+        <v>665</v>
+      </c>
+      <c r="C101">
+        <v>15</v>
+      </c>
+      <c r="D101" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>905</v>
+      </c>
+      <c r="B102" t="s">
+        <v>906</v>
+      </c>
+      <c r="C102">
+        <v>20</v>
+      </c>
+      <c r="D102" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>907</v>
+      </c>
+      <c r="B103" t="s">
+        <v>908</v>
+      </c>
+      <c r="C103">
+        <v>15</v>
+      </c>
+      <c r="D103" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>909</v>
+      </c>
+      <c r="B104" t="s">
+        <v>910</v>
+      </c>
+      <c r="C104">
+        <v>8</v>
+      </c>
+      <c r="D104" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>554</v>
+      </c>
+      <c r="B105" t="s">
+        <v>669</v>
+      </c>
+      <c r="C105">
+        <v>8</v>
+      </c>
+      <c r="D105" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>555</v>
+      </c>
+      <c r="B106" t="s">
+        <v>670</v>
+      </c>
+      <c r="C106">
+        <v>8</v>
+      </c>
+      <c r="D106" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>556</v>
+      </c>
+      <c r="B107" t="s">
+        <v>671</v>
+      </c>
+      <c r="C107">
+        <v>8</v>
+      </c>
+      <c r="D107" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>911</v>
+      </c>
+      <c r="B108" t="s">
+        <v>912</v>
+      </c>
+      <c r="C108">
+        <v>40</v>
+      </c>
+      <c r="D108" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>913</v>
+      </c>
+      <c r="B109" t="s">
+        <v>914</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>915</v>
+      </c>
+      <c r="B110" t="s">
+        <v>916</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>917</v>
+      </c>
+      <c r="B111" t="s">
+        <v>918</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>919</v>
+      </c>
+      <c r="B112" t="s">
+        <v>920</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>921</v>
+      </c>
+      <c r="B113" t="s">
+        <v>922</v>
+      </c>
+      <c r="C113">
+        <v>4</v>
+      </c>
+      <c r="D113" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>573</v>
+      </c>
+      <c r="B114" t="s">
+        <v>688</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>574</v>
+      </c>
+      <c r="B115" t="s">
+        <v>689</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>575</v>
+      </c>
+      <c r="B116" t="s">
+        <v>690</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>923</v>
+      </c>
+      <c r="B117" t="s">
+        <v>924</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>925</v>
+      </c>
+      <c r="B118" t="s">
+        <v>926</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>927</v>
+      </c>
+      <c r="B119" t="s">
+        <v>928</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>929</v>
+      </c>
+      <c r="B120" t="s">
+        <v>930</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -3602,6 +5171,224 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26ED03E4-9279-4AAF-80B3-2937A70CC072}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>931</v>
+      </c>
+      <c r="B2" t="s">
+        <v>932</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>933</v>
+      </c>
+      <c r="B3" t="s">
+        <v>934</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>935</v>
+      </c>
+      <c r="B4" t="s">
+        <v>936</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>937</v>
+      </c>
+      <c r="B5" t="s">
+        <v>938</v>
+      </c>
+      <c r="C5">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>939</v>
+      </c>
+      <c r="B6" t="s">
+        <v>940</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>941</v>
+      </c>
+      <c r="B7" t="s">
+        <v>942</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>943</v>
+      </c>
+      <c r="B8" t="s">
+        <v>944</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>945</v>
+      </c>
+      <c r="B9" t="s">
+        <v>946</v>
+      </c>
+      <c r="C9">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>947</v>
+      </c>
+      <c r="B10" t="s">
+        <v>948</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>949</v>
+      </c>
+      <c r="B11" t="s">
+        <v>950</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>951</v>
+      </c>
+      <c r="B12" t="s">
+        <v>952</v>
+      </c>
+      <c r="C12">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>953</v>
+      </c>
+      <c r="B13" t="s">
+        <v>954</v>
+      </c>
+      <c r="C13">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>955</v>
+      </c>
+      <c r="B14" t="s">
+        <v>956</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95992436-2D1B-4521-83AF-BDE730D4C62F}">
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -3618,226 +5405,226 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B1" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C1" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D1" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B2" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B3" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B4" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B5" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B6" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B7" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B8" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B9" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B10" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B11" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B12" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C12">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B13" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C13">
         <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B14" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C14">
         <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B15" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C15">
         <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B16" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C16">
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3846,7 +5633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F1B9F2-4D9D-4DC7-90F2-B48A3404C8E3}">
   <dimension ref="A1:D24"/>
   <sheetViews>
@@ -3863,338 +5650,338 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B1" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C1" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D1" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B2" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C2">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B3" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C3">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B4" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="C4">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B5" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C5">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B6" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C6">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B7" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C7">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B8" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C8">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B9" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C9">
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B10" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C10">
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B11" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C11">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B12" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B13" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C13">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B14" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C14">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B15" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C15">
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B16" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C16">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B17" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C17">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B18" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C18">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B19" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C19">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B20" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C20">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B21" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C21">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B22" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C22">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B23" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C23">
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B24" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C24">
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -4204,10 +5991,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA6FA2D-9BD3-4FE2-8C9E-C1B71F86696C}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4220,164 +6007,186 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="B12" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="C12" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C13" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>546</v>
+        <v>544</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>992</v>
+      </c>
+      <c r="B16" t="s">
+        <v>994</v>
+      </c>
+      <c r="C16" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>993</v>
+      </c>
+      <c r="B17" t="s">
+        <v>995</v>
+      </c>
+      <c r="C17" t="s">
+        <v>995</v>
       </c>
     </row>
   </sheetData>
@@ -4387,10 +6196,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FA2892-900A-48F6-AB5F-A08D9103BEB3}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4402,13 +6211,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4438,102 +6247,123 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>963</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>958</v>
+      </c>
+      <c r="B8" t="s">
+        <v>957</v>
+      </c>
+      <c r="C8" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>960</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>736</v>
-      </c>
-      <c r="B17" t="s">
-        <v>737</v>
-      </c>
-      <c r="C17" t="s">
-        <v>738</v>
+        <v>961</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>22</v>
+        <v>962</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>728</v>
+      </c>
+      <c r="B20" t="s">
+        <v>729</v>
+      </c>
+      <c r="C20" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C23" t="s">
         <v>21</v>
-      </c>
-      <c r="C20" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -4545,8 +6375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265C536C-4D26-4E6D-9015-EE4217B0E0FB}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4561,172 +6391,172 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C2" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="F2" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="G2" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="H2" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="F3" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="G3" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="H3" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="F4" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="G4" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="H4" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="F5" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="G5" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="H5" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="B6" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="C6" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="F6" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="G6" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="H6" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="F7" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="G7" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="H7" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
     </row>
   </sheetData>
@@ -4738,10 +6568,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42AEA670-6461-4AF8-8E36-C9AE338686F8}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4750,36 +6580,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="str">
+      <c r="B1" s="15" t="str">
         <f>feat_sets!A2</f>
         <v>CCA-GW-FSET</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11" t="str">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15" t="str">
         <f>feat_sets!A3</f>
         <v>CCA-CMPT-BA</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11" t="str">
+      <c r="E1" s="15"/>
+      <c r="F1" s="15" t="str">
         <f>feat_sets!A4</f>
         <v>CCA-CMPT-DMS</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11" t="str">
+      <c r="G1" s="15"/>
+      <c r="H1" s="15" t="str">
         <f>feat_sets!A5</f>
         <v>CCA-CMPT-VM</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11" t="str">
+      <c r="I1" s="15"/>
+      <c r="J1" s="15" t="str">
         <f>feat_sets!A6</f>
         <v>CCA-CMPT-ELEC</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11" t="str">
+      <c r="K1" s="15"/>
+      <c r="L1" s="15" t="str">
         <f>feat_sets!A7</f>
         <v>CCA-STD-FSET</v>
       </c>
-      <c r="M1" s="11"/>
+      <c r="M1" s="15"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
@@ -5169,10 +6999,10 @@
         <v>-1</v>
       </c>
       <c r="D11" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2">
         <v>-1</v>
@@ -5211,10 +7041,10 @@
         <v>-1</v>
       </c>
       <c r="D12" s="9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="9">
-        <v>-1</v>
+        <v>500</v>
       </c>
       <c r="F12" s="9">
         <v>-1</v>
@@ -5232,7 +7062,7 @@
         <v>500</v>
       </c>
       <c r="K12" s="9">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="L12" s="9">
         <v>0</v>
@@ -5364,6 +7194,88 @@
         <v>0</v>
       </c>
       <c r="M15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>996</v>
+      </c>
+      <c r="B16" s="14">
+        <v>0</v>
+      </c>
+      <c r="C16" s="14">
+        <v>0</v>
+      </c>
+      <c r="D16" s="14">
+        <v>0</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0</v>
+      </c>
+      <c r="K16" s="14">
+        <v>0</v>
+      </c>
+      <c r="L16" s="14">
+        <v>0</v>
+      </c>
+      <c r="M16" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>997</v>
+      </c>
+      <c r="B17" s="14">
+        <v>0</v>
+      </c>
+      <c r="C17" s="14">
+        <v>0</v>
+      </c>
+      <c r="D17" s="14">
+        <v>0</v>
+      </c>
+      <c r="E17" s="14">
+        <v>0</v>
+      </c>
+      <c r="F17" s="14">
+        <v>0</v>
+      </c>
+      <c r="G17" s="14">
+        <v>0</v>
+      </c>
+      <c r="H17" s="14">
+        <v>0</v>
+      </c>
+      <c r="I17" s="14">
+        <v>0</v>
+      </c>
+      <c r="J17" s="14">
+        <v>0</v>
+      </c>
+      <c r="K17" s="14">
+        <v>0</v>
+      </c>
+      <c r="L17" s="14">
+        <v>0</v>
+      </c>
+      <c r="M17" s="14">
         <v>0</v>
       </c>
     </row>
@@ -5382,10 +7294,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4270B64-68A0-450B-B4CA-F2EF7E917DD4}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="A21" sqref="A21:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5549,7 +7461,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>options!A7</f>
-        <v>Удаленные уведомления (СМС, E-mail, пйджер)</v>
+        <v>Удаленные уведомления (СМС, E-mail, пейджер)</v>
       </c>
       <c r="B7" s="2">
         <v>-1</v>
@@ -5573,31 +7485,31 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>options!A8</f>
-        <v>Отчеты</v>
-      </c>
-      <c r="B8" s="2">
+        <v>Расширенные уведомления (RenoPlus)</v>
+      </c>
+      <c r="B8" s="11">
         <v>-1</v>
       </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="9">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1</v>
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>options!A9</f>
-        <v>Просмотр логов</v>
+        <v>Отчеты</v>
       </c>
       <c r="B9" s="2">
         <v>-1</v>
@@ -5606,7 +7518,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -5621,22 +7533,22 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>options!A10</f>
-        <v>Процедуры обработки событий</v>
+        <v>Просмотр логов</v>
       </c>
       <c r="B10" s="2">
         <v>-1</v>
       </c>
       <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
         <v>-1</v>
       </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
       <c r="E10" s="2">
         <v>1</v>
       </c>
       <c r="F10" s="9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -5645,46 +7557,46 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>options!A11</f>
-        <v>Расширенные отчеты</v>
-      </c>
-      <c r="B11" s="2">
+        <v>Задачи оператора</v>
+      </c>
+      <c r="B11" s="11">
         <v>-1</v>
       </c>
-      <c r="C11" s="2">
-        <v>-1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="F11" s="9">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="C11" s="11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>options!A12</f>
-        <v>Редактор графики</v>
+        <v>Процедуры обработки событий</v>
       </c>
       <c r="B12" s="2">
         <v>-1</v>
       </c>
       <c r="C12" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -5693,7 +7605,7 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>options!A13</f>
-        <v>Распределенные системы</v>
+        <v>Расширенные отчеты</v>
       </c>
       <c r="B13" s="2">
         <v>-1</v>
@@ -5708,7 +7620,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -5717,22 +7629,22 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>options!A14</f>
-        <v>Логика (реакции по событиям/COV, скрипты JavaScript)</v>
+        <v>Редактор графики</v>
       </c>
       <c r="B14" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C14" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -5741,7 +7653,7 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>options!A15</f>
-        <v>Отчеты валидация</v>
+        <v>Распределенные системы</v>
       </c>
       <c r="B15" s="2">
         <v>-1</v>
@@ -5765,7 +7677,7 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>options!A16</f>
-        <v>OPC DA сервер</v>
+        <v>Логика (реакции по событиям/COV, скрипты JavaScript)</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -5780,7 +7692,7 @@
         <v>-1</v>
       </c>
       <c r="F16" s="9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -5789,34 +7701,34 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>options!A17</f>
-        <v>Поддержка PACE</v>
-      </c>
-      <c r="B17" s="9">
-        <v>0</v>
-      </c>
-      <c r="C17" s="9">
-        <v>0</v>
-      </c>
-      <c r="D17" s="9">
-        <v>0</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0</v>
+        <v>Отчеты валидация (Pharma)</v>
+      </c>
+      <c r="B17" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
       </c>
       <c r="F17" s="9">
-        <v>0</v>
-      </c>
-      <c r="G17" s="9">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>options!A18</f>
-        <v>Поддержка IEC 61850</v>
+        <v>OPC DA сервер</v>
       </c>
       <c r="B18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="2">
         <v>-1</v>
@@ -5831,56 +7743,159 @@
         <v>-1</v>
       </c>
       <c r="G18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>options!A19</f>
+        <v>BACnet сервер</v>
+      </c>
+      <c r="B19" s="11">
+        <v>1</v>
+      </c>
+      <c r="C19" s="11">
+        <v>-1</v>
+      </c>
+      <c r="D19" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E19" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F19" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>998</v>
+      </c>
+      <c r="B20" s="14">
+        <v>1</v>
+      </c>
+      <c r="C20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="D20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="F20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G20" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>options!A20</f>
+        <v>Поддержка PACE</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>options!A21</f>
+        <v>Поддержка IEC 61850</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F22" s="9">
+        <v>-1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>options!A22</f>
         <v>Подключение до 64 контроллеров Simatic S7</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B23" s="2">
         <v>0</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C23" s="2">
         <v>-1</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D23" s="2">
         <v>-1</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E23" s="2">
         <v>-1</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F23" s="9">
         <v>-1</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G23" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
-        <f>options!A20</f>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>options!A23</f>
         <v>Поддержка Simatic S7 plus</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B24" s="2">
         <v>0</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C24" s="2">
         <v>-1</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D24" s="2">
         <v>-1</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E24" s="2">
         <v>-1</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F24" s="9">
         <v>-1</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G24" s="2">
         <v>0</v>
       </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5892,7 +7907,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5904,35 +7919,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="B1" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C1" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="B2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C2" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="B3" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="C3" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
     </row>
   </sheetData>
@@ -5942,2232 +7957,2329 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23746BB9-1DD0-4EAB-8A33-BFEF932BE348}">
-  <dimension ref="A1:E131"/>
+  <dimension ref="A1:E138"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A132" sqref="A132"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.5703125" customWidth="1"/>
     <col min="4" max="4" width="93" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
         <v>70</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>71</v>
       </c>
-      <c r="C2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2">
-        <v>763</v>
+      <c r="E2" s="13">
+        <v>770</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
         <v>74</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>75</v>
       </c>
-      <c r="C3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3">
-        <v>2919</v>
+      <c r="E3" s="13">
+        <v>2947</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
         <v>78</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>79</v>
       </c>
-      <c r="C4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4">
-        <v>60.13</v>
+      <c r="E4" s="13">
+        <v>60.69</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" t="s">
         <v>82</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>83</v>
       </c>
-      <c r="C5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5">
-        <v>152.6</v>
+      <c r="E5" s="13">
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" t="s">
         <v>86</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>87</v>
       </c>
-      <c r="C6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6">
-        <v>582.4</v>
+      <c r="E6" s="13">
+        <v>587.29999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
         <v>90</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>91</v>
       </c>
-      <c r="C7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7">
-        <v>11.9</v>
+      <c r="E7" s="13">
+        <v>12.04</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" t="s">
         <v>94</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>95</v>
       </c>
-      <c r="C8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8">
-        <v>457.8</v>
+      <c r="E8" s="13">
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" t="s">
         <v>98</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>99</v>
       </c>
-      <c r="C9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9">
-        <v>1750</v>
+      <c r="E9" s="13">
+        <v>1764</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" t="s">
         <v>102</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>103</v>
       </c>
-      <c r="C10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10">
-        <v>35.979999999999997</v>
+      <c r="E10" s="13">
+        <v>36.33</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" t="s">
         <v>106</v>
       </c>
-      <c r="B11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E11">
-        <v>2604</v>
+      <c r="E11" s="13">
+        <v>2625</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" t="s">
         <v>109</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>110</v>
       </c>
-      <c r="C12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E12">
-        <v>12152</v>
+      <c r="E12" s="13">
+        <v>12250</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" t="s">
         <v>113</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>114</v>
       </c>
-      <c r="C13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" t="s">
-        <v>116</v>
-      </c>
-      <c r="E13">
-        <v>520.1</v>
+      <c r="E13" s="13">
+        <v>525</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" t="s">
         <v>117</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>118</v>
       </c>
-      <c r="C14" t="s">
-        <v>119</v>
-      </c>
-      <c r="D14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E14">
-        <v>1561</v>
+      <c r="E14" s="13">
+        <v>1575</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" t="s">
         <v>121</v>
       </c>
-      <c r="B15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" t="s">
-        <v>123</v>
-      </c>
-      <c r="E15">
-        <v>2940</v>
+      <c r="E15" s="13">
+        <v>2969.4</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" t="s">
         <v>124</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>125</v>
       </c>
-      <c r="C16" t="s">
-        <v>126</v>
-      </c>
-      <c r="D16" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16">
-        <v>588</v>
+      <c r="E16" s="13">
+        <v>593.88</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" t="s">
         <v>128</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
         <v>129</v>
       </c>
-      <c r="C17" t="s">
-        <v>130</v>
-      </c>
-      <c r="D17" t="s">
-        <v>131</v>
-      </c>
-      <c r="E17">
-        <v>1764</v>
+      <c r="E17" s="13">
+        <v>1783.6</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" t="s">
         <v>132</v>
       </c>
-      <c r="B18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" t="s">
-        <v>134</v>
-      </c>
-      <c r="E18">
-        <v>3557.4</v>
+      <c r="E18" s="13">
+        <v>3596.6</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" t="s">
         <v>135</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
         <v>136</v>
       </c>
-      <c r="C19" t="s">
-        <v>137</v>
-      </c>
-      <c r="D19" t="s">
-        <v>138</v>
-      </c>
-      <c r="E19">
-        <v>12740</v>
+      <c r="E19" s="13">
+        <v>12838</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" t="s">
         <v>139</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>140</v>
       </c>
-      <c r="C20" t="s">
-        <v>141</v>
-      </c>
-      <c r="D20" t="s">
-        <v>142</v>
-      </c>
-      <c r="E20">
-        <v>2136.4</v>
+      <c r="E20" s="13">
+        <v>2156</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" t="s">
         <v>143</v>
       </c>
-      <c r="B21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" t="s">
-        <v>144</v>
-      </c>
-      <c r="D21" t="s">
-        <v>145</v>
-      </c>
-      <c r="E21">
-        <v>5684</v>
+      <c r="E21" s="13">
+        <v>5742.8</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" t="s">
         <v>146</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D22" t="s">
         <v>147</v>
       </c>
-      <c r="C22" t="s">
-        <v>148</v>
-      </c>
-      <c r="D22" t="s">
-        <v>149</v>
-      </c>
-      <c r="E22">
-        <v>1136.8</v>
+      <c r="E22" s="13">
+        <v>1146.5999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" t="s">
         <v>150</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D23" t="s">
         <v>151</v>
       </c>
-      <c r="C23" t="s">
-        <v>152</v>
-      </c>
-      <c r="D23" t="s">
-        <v>153</v>
-      </c>
-      <c r="E23">
-        <v>3410.4</v>
+      <c r="E23" s="13">
+        <v>3439.8</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>152</v>
+      </c>
+      <c r="B24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" t="s">
         <v>154</v>
       </c>
-      <c r="B24" t="s">
+      <c r="D24" t="s">
         <v>155</v>
       </c>
-      <c r="C24" t="s">
-        <v>156</v>
-      </c>
-      <c r="D24" t="s">
-        <v>157</v>
-      </c>
-      <c r="E24">
-        <v>1871.8</v>
+      <c r="E24" s="13">
+        <v>1891.4</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>156</v>
+      </c>
+      <c r="B25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C25" t="s">
         <v>158</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D25" t="s">
         <v>159</v>
       </c>
-      <c r="C25" t="s">
-        <v>160</v>
-      </c>
-      <c r="D25" t="s">
-        <v>161</v>
-      </c>
-      <c r="E25">
-        <v>373.38</v>
+      <c r="E25" s="13">
+        <v>377.3</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>160</v>
+      </c>
+      <c r="B26" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" t="s">
         <v>162</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" t="s">
         <v>163</v>
       </c>
-      <c r="C26" t="s">
-        <v>164</v>
-      </c>
-      <c r="D26" t="s">
-        <v>165</v>
-      </c>
-      <c r="E26">
-        <v>1136.8</v>
+      <c r="E26" s="13">
+        <v>1146.5999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>164</v>
+      </c>
+      <c r="B27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" t="s">
         <v>166</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27" t="s">
         <v>167</v>
       </c>
-      <c r="C27" t="s">
-        <v>168</v>
-      </c>
-      <c r="D27" t="s">
-        <v>169</v>
-      </c>
-      <c r="E27">
-        <v>19992</v>
+      <c r="E27" s="13">
+        <v>20188</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" t="s">
         <v>170</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D28" t="s">
         <v>171</v>
       </c>
-      <c r="C28" t="s">
-        <v>172</v>
-      </c>
-      <c r="D28" t="s">
-        <v>173</v>
-      </c>
-      <c r="E28">
-        <v>3998.4</v>
+      <c r="E28" s="13">
+        <v>4037.6</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" t="s">
         <v>174</v>
       </c>
-      <c r="B29" t="s">
+      <c r="D29" t="s">
         <v>175</v>
       </c>
-      <c r="C29" t="s">
-        <v>176</v>
-      </c>
-      <c r="D29" t="s">
-        <v>177</v>
-      </c>
-      <c r="E29">
-        <v>11956</v>
+      <c r="E29" s="13">
+        <v>12054</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" t="s">
+        <v>177</v>
+      </c>
+      <c r="D30" t="s">
         <v>178</v>
       </c>
-      <c r="B30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" t="s">
-        <v>179</v>
-      </c>
-      <c r="D30" t="s">
-        <v>180</v>
-      </c>
-      <c r="E30">
-        <v>6095.6</v>
+      <c r="E30" s="13">
+        <v>6154.4</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>179</v>
+      </c>
+      <c r="B31" t="s">
+        <v>180</v>
+      </c>
+      <c r="C31" t="s">
         <v>181</v>
       </c>
-      <c r="B31" t="s">
+      <c r="D31" t="s">
         <v>182</v>
       </c>
-      <c r="C31" t="s">
-        <v>183</v>
-      </c>
-      <c r="D31" t="s">
-        <v>184</v>
-      </c>
-      <c r="E31">
-        <v>12152</v>
+      <c r="E31" s="13">
+        <v>9996</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>183</v>
+      </c>
+      <c r="B32" t="s">
+        <v>184</v>
+      </c>
+      <c r="C32" t="s">
         <v>185</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D32" t="s">
         <v>186</v>
       </c>
-      <c r="C32" t="s">
-        <v>187</v>
-      </c>
-      <c r="D32" t="s">
-        <v>188</v>
-      </c>
-      <c r="E32">
-        <v>743.82</v>
+      <c r="E32" s="13">
+        <v>781.06</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>187</v>
+      </c>
+      <c r="B33" t="s">
+        <v>188</v>
+      </c>
+      <c r="C33" t="s">
         <v>189</v>
       </c>
-      <c r="B33" t="s">
+      <c r="D33" t="s">
         <v>190</v>
       </c>
-      <c r="C33" t="s">
-        <v>191</v>
-      </c>
-      <c r="D33" t="s">
-        <v>192</v>
-      </c>
-      <c r="E33">
-        <v>3047.8</v>
+      <c r="E33" s="13">
+        <v>3204.6</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>191</v>
+      </c>
+      <c r="B34" t="s">
+        <v>192</v>
+      </c>
+      <c r="C34" t="s">
         <v>193</v>
       </c>
-      <c r="B34" t="s">
+      <c r="D34" t="s">
         <v>194</v>
       </c>
-      <c r="C34" t="s">
-        <v>195</v>
-      </c>
-      <c r="D34" t="s">
-        <v>196</v>
-      </c>
-      <c r="E34">
-        <v>22050</v>
+      <c r="E34" s="13">
+        <v>23128</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>195</v>
+      </c>
+      <c r="B35" t="s">
+        <v>196</v>
+      </c>
+      <c r="C35" t="s">
         <v>197</v>
       </c>
-      <c r="B35" t="s">
+      <c r="D35" t="s">
         <v>198</v>
       </c>
-      <c r="C35" t="s">
-        <v>199</v>
-      </c>
-      <c r="D35" t="s">
-        <v>200</v>
-      </c>
-      <c r="E35">
-        <v>147.97999999999999</v>
+      <c r="E35" s="13">
+        <v>155.82</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>199</v>
+      </c>
+      <c r="B36" t="s">
+        <v>200</v>
+      </c>
+      <c r="C36" t="s">
         <v>201</v>
       </c>
-      <c r="B36" t="s">
+      <c r="D36" t="s">
         <v>202</v>
       </c>
-      <c r="C36" t="s">
-        <v>203</v>
-      </c>
-      <c r="D36" t="s">
-        <v>204</v>
-      </c>
-      <c r="E36">
-        <v>609.55999999999995</v>
+      <c r="E36" s="13">
+        <v>639.94000000000005</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>203</v>
+      </c>
+      <c r="B37" t="s">
+        <v>204</v>
+      </c>
+      <c r="C37" t="s">
         <v>205</v>
       </c>
-      <c r="B37" t="s">
+      <c r="D37" t="s">
         <v>206</v>
       </c>
-      <c r="C37" t="s">
-        <v>207</v>
-      </c>
-      <c r="D37" t="s">
-        <v>208</v>
-      </c>
-      <c r="E37">
-        <v>4410</v>
+      <c r="E37" s="13">
+        <v>4635.3999999999996</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>207</v>
+      </c>
+      <c r="B38" t="s">
+        <v>208</v>
+      </c>
+      <c r="C38" t="s">
         <v>209</v>
       </c>
-      <c r="B38" t="s">
+      <c r="D38" t="s">
         <v>210</v>
       </c>
-      <c r="C38" t="s">
-        <v>211</v>
-      </c>
-      <c r="D38" t="s">
-        <v>212</v>
-      </c>
-      <c r="E38">
-        <v>445.9</v>
+      <c r="E38" s="13">
+        <v>468.44</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>211</v>
+      </c>
+      <c r="B39" t="s">
+        <v>212</v>
+      </c>
+      <c r="C39" t="s">
         <v>213</v>
       </c>
-      <c r="B39" t="s">
+      <c r="D39" t="s">
         <v>214</v>
       </c>
-      <c r="C39" t="s">
-        <v>215</v>
-      </c>
-      <c r="D39" t="s">
-        <v>216</v>
-      </c>
-      <c r="E39">
-        <v>1832.6</v>
+      <c r="E39" s="13">
+        <v>1920.8</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>215</v>
+      </c>
+      <c r="B40" t="s">
+        <v>216</v>
+      </c>
+      <c r="C40" t="s">
         <v>217</v>
       </c>
-      <c r="B40" t="s">
+      <c r="D40" t="s">
         <v>218</v>
       </c>
-      <c r="C40" t="s">
-        <v>219</v>
-      </c>
-      <c r="D40" t="s">
-        <v>220</v>
-      </c>
-      <c r="E40">
-        <v>13230</v>
+      <c r="E40" s="13">
+        <v>13916</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D41" t="s">
-        <v>222</v>
-      </c>
-      <c r="E41">
-        <v>3557.4</v>
+        <v>220</v>
+      </c>
+      <c r="E41" s="13">
+        <v>3596.6</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>221</v>
+      </c>
+      <c r="B42" t="s">
+        <v>222</v>
+      </c>
+      <c r="C42" t="s">
         <v>223</v>
       </c>
-      <c r="B42" t="s">
+      <c r="D42" t="s">
         <v>224</v>
       </c>
-      <c r="C42" t="s">
-        <v>225</v>
-      </c>
-      <c r="D42" t="s">
-        <v>226</v>
-      </c>
-      <c r="E42">
+      <c r="E42" s="13">
         <v>493.11</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" t="s">
         <v>20</v>
       </c>
-      <c r="B43" t="s">
-        <v>22</v>
-      </c>
       <c r="C43" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D43" t="s">
-        <v>228</v>
-      </c>
-      <c r="E43">
-        <v>2220.3000000000002</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="E43" s="13"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C44" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D44" t="s">
-        <v>230</v>
-      </c>
-      <c r="E44">
-        <v>2234.4</v>
+        <v>228</v>
+      </c>
+      <c r="E44" s="13">
+        <v>2254</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" t="s">
         <v>21</v>
       </c>
-      <c r="B45" t="s">
-        <v>23</v>
-      </c>
       <c r="C45" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D45" t="s">
-        <v>232</v>
-      </c>
-      <c r="E45">
-        <v>1723.0360000000001</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="E45" s="13"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>231</v>
+      </c>
+      <c r="B46" t="s">
+        <v>232</v>
+      </c>
+      <c r="C46" t="s">
         <v>233</v>
       </c>
-      <c r="B46" t="s">
+      <c r="D46" t="s">
         <v>234</v>
       </c>
-      <c r="C46" t="s">
-        <v>235</v>
-      </c>
-      <c r="D46" t="s">
-        <v>236</v>
-      </c>
-      <c r="E46">
-        <v>1019.2</v>
+      <c r="E46" s="13">
+        <v>1029</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>235</v>
+      </c>
+      <c r="B47" t="s">
+        <v>236</v>
+      </c>
+      <c r="C47" t="s">
         <v>237</v>
       </c>
-      <c r="B47" t="s">
+      <c r="D47" t="s">
         <v>238</v>
       </c>
-      <c r="C47" t="s">
-        <v>239</v>
-      </c>
-      <c r="D47" t="s">
-        <v>240</v>
-      </c>
-      <c r="E47">
-        <v>5880</v>
+      <c r="E47" s="13">
+        <v>5938.8</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>239</v>
+      </c>
+      <c r="B48" t="s">
+        <v>240</v>
+      </c>
+      <c r="C48" t="s">
         <v>241</v>
       </c>
-      <c r="B48" t="s">
+      <c r="D48" t="s">
         <v>242</v>
       </c>
-      <c r="C48" t="s">
-        <v>243</v>
-      </c>
-      <c r="D48" t="s">
-        <v>244</v>
-      </c>
-      <c r="E48">
-        <v>202.86</v>
+      <c r="E48" s="13">
+        <v>204.82</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>243</v>
+      </c>
+      <c r="B49" t="s">
+        <v>244</v>
+      </c>
+      <c r="C49" t="s">
         <v>245</v>
       </c>
-      <c r="B49" t="s">
+      <c r="D49" t="s">
         <v>246</v>
       </c>
-      <c r="C49" t="s">
-        <v>247</v>
-      </c>
-      <c r="D49" t="s">
-        <v>248</v>
-      </c>
-      <c r="E49">
-        <v>1176</v>
+      <c r="E49" s="13">
+        <v>1185.8</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>247</v>
+      </c>
+      <c r="B50" t="s">
+        <v>248</v>
+      </c>
+      <c r="C50" t="s">
         <v>249</v>
       </c>
-      <c r="B50" t="s">
+      <c r="D50" t="s">
         <v>250</v>
       </c>
-      <c r="C50" t="s">
-        <v>251</v>
-      </c>
-      <c r="D50" t="s">
-        <v>252</v>
-      </c>
-      <c r="E50">
-        <v>609.55999999999995</v>
+      <c r="E50" s="13">
+        <v>615.44000000000005</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>251</v>
+      </c>
+      <c r="B51" t="s">
+        <v>252</v>
+      </c>
+      <c r="C51" t="s">
         <v>253</v>
       </c>
-      <c r="B51" t="s">
+      <c r="D51" t="s">
         <v>254</v>
       </c>
-      <c r="C51" t="s">
-        <v>255</v>
-      </c>
-      <c r="D51" t="s">
-        <v>256</v>
-      </c>
-      <c r="E51">
-        <v>3528</v>
+      <c r="E51" s="13">
+        <v>3567.2</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>255</v>
+      </c>
+      <c r="B52" t="s">
+        <v>256</v>
+      </c>
+      <c r="C52" t="s">
         <v>257</v>
       </c>
-      <c r="B52" t="s">
+      <c r="D52" t="s">
         <v>258</v>
       </c>
-      <c r="C52" t="s">
-        <v>259</v>
-      </c>
-      <c r="D52" t="s">
-        <v>260</v>
-      </c>
-      <c r="E52">
-        <v>1019.2</v>
+      <c r="E52" s="13">
+        <v>1029</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>259</v>
+      </c>
+      <c r="B53" t="s">
+        <v>260</v>
+      </c>
+      <c r="C53" t="s">
         <v>261</v>
       </c>
-      <c r="B53" t="s">
+      <c r="D53" t="s">
         <v>262</v>
       </c>
-      <c r="C53" t="s">
-        <v>263</v>
-      </c>
-      <c r="D53" t="s">
-        <v>264</v>
-      </c>
-      <c r="E53">
-        <v>19600</v>
+      <c r="E53" s="13">
+        <v>19796</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>263</v>
+      </c>
+      <c r="B54" t="s">
+        <v>264</v>
+      </c>
+      <c r="C54" t="s">
         <v>265</v>
       </c>
-      <c r="B54" t="s">
+      <c r="D54" t="s">
         <v>266</v>
       </c>
-      <c r="C54" t="s">
-        <v>267</v>
-      </c>
-      <c r="D54" t="s">
-        <v>268</v>
-      </c>
-      <c r="E54">
-        <v>49000</v>
+      <c r="E54" s="13">
+        <v>49490</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>267</v>
+      </c>
+      <c r="B55" t="s">
+        <v>268</v>
+      </c>
+      <c r="C55" t="s">
         <v>269</v>
       </c>
-      <c r="B55" t="s">
+      <c r="D55" t="s">
         <v>270</v>
       </c>
-      <c r="C55" t="s">
-        <v>271</v>
-      </c>
-      <c r="D55" t="s">
-        <v>272</v>
-      </c>
-      <c r="E55">
-        <v>29400</v>
+      <c r="E55" s="13">
+        <v>29694</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>271</v>
+      </c>
+      <c r="B56" t="s">
+        <v>272</v>
+      </c>
+      <c r="C56" t="s">
         <v>273</v>
       </c>
-      <c r="B56" t="s">
+      <c r="D56" t="s">
         <v>274</v>
       </c>
-      <c r="C56" t="s">
-        <v>275</v>
-      </c>
-      <c r="D56" t="s">
-        <v>276</v>
-      </c>
-      <c r="E56">
-        <v>2940</v>
+      <c r="E56" s="13">
+        <v>2969.4</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>275</v>
+      </c>
+      <c r="B57" t="s">
+        <v>276</v>
+      </c>
+      <c r="C57" t="s">
         <v>277</v>
       </c>
-      <c r="B57" t="s">
+      <c r="D57" t="s">
         <v>278</v>
       </c>
-      <c r="C57" t="s">
-        <v>279</v>
-      </c>
-      <c r="D57" t="s">
-        <v>280</v>
-      </c>
-      <c r="E57">
-        <v>14700</v>
+      <c r="E57" s="13">
+        <v>14896</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>279</v>
+      </c>
+      <c r="B58" t="s">
+        <v>280</v>
+      </c>
+      <c r="C58" t="s">
         <v>281</v>
       </c>
-      <c r="B58" t="s">
+      <c r="D58" t="s">
         <v>282</v>
       </c>
-      <c r="C58" t="s">
-        <v>283</v>
-      </c>
-      <c r="D58" t="s">
-        <v>284</v>
-      </c>
-      <c r="E58">
-        <v>202.86</v>
+      <c r="E58" s="13">
+        <v>204.82</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>283</v>
+      </c>
+      <c r="B59" t="s">
+        <v>284</v>
+      </c>
+      <c r="C59" t="s">
         <v>285</v>
       </c>
-      <c r="B59" t="s">
+      <c r="D59" t="s">
         <v>286</v>
       </c>
-      <c r="C59" t="s">
-        <v>287</v>
-      </c>
-      <c r="D59" t="s">
-        <v>288</v>
-      </c>
-      <c r="E59">
-        <v>3920</v>
+      <c r="E59" s="13">
+        <v>3959.2</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>287</v>
+      </c>
+      <c r="B60" t="s">
+        <v>288</v>
+      </c>
+      <c r="C60" t="s">
         <v>289</v>
       </c>
-      <c r="B60" t="s">
+      <c r="D60" t="s">
         <v>290</v>
       </c>
-      <c r="C60" t="s">
-        <v>291</v>
-      </c>
-      <c r="D60" t="s">
-        <v>292</v>
-      </c>
-      <c r="E60">
-        <v>9800</v>
+      <c r="E60" s="13">
+        <v>9898</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>291</v>
+      </c>
+      <c r="B61" t="s">
+        <v>292</v>
+      </c>
+      <c r="C61" t="s">
         <v>293</v>
       </c>
-      <c r="B61" t="s">
+      <c r="D61" t="s">
         <v>294</v>
       </c>
-      <c r="C61" t="s">
-        <v>295</v>
-      </c>
-      <c r="D61" t="s">
-        <v>296</v>
-      </c>
-      <c r="E61">
-        <v>5880</v>
+      <c r="E61" s="13">
+        <v>5938.8</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>295</v>
+      </c>
+      <c r="B62" t="s">
+        <v>296</v>
+      </c>
+      <c r="C62" t="s">
         <v>297</v>
       </c>
-      <c r="B62" t="s">
+      <c r="D62" t="s">
         <v>298</v>
       </c>
-      <c r="C62" t="s">
-        <v>299</v>
-      </c>
-      <c r="D62" t="s">
-        <v>300</v>
-      </c>
-      <c r="E62">
-        <v>588</v>
+      <c r="E62" s="13">
+        <v>593.88</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>299</v>
+      </c>
+      <c r="B63" t="s">
+        <v>300</v>
+      </c>
+      <c r="C63" t="s">
         <v>301</v>
       </c>
-      <c r="B63" t="s">
+      <c r="D63" t="s">
         <v>302</v>
       </c>
-      <c r="C63" t="s">
-        <v>303</v>
-      </c>
-      <c r="D63" t="s">
-        <v>304</v>
-      </c>
-      <c r="E63">
-        <v>2940</v>
+      <c r="E63" s="13">
+        <v>2969.4</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>303</v>
+      </c>
+      <c r="B64" t="s">
+        <v>304</v>
+      </c>
+      <c r="C64" t="s">
         <v>305</v>
       </c>
-      <c r="B64" t="s">
+      <c r="D64" t="s">
         <v>306</v>
       </c>
-      <c r="C64" t="s">
-        <v>307</v>
-      </c>
-      <c r="D64" t="s">
-        <v>308</v>
-      </c>
-      <c r="E64">
-        <v>609.55999999999995</v>
+      <c r="E64" s="13">
+        <v>615.44000000000005</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>307</v>
+      </c>
+      <c r="B65" t="s">
+        <v>308</v>
+      </c>
+      <c r="C65" t="s">
         <v>309</v>
       </c>
-      <c r="B65" t="s">
+      <c r="D65" t="s">
         <v>310</v>
       </c>
-      <c r="C65" t="s">
-        <v>311</v>
-      </c>
-      <c r="D65" t="s">
-        <v>312</v>
-      </c>
-      <c r="E65">
-        <v>11760</v>
+      <c r="E65" s="13">
+        <v>11858</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>311</v>
+      </c>
+      <c r="B66" t="s">
+        <v>312</v>
+      </c>
+      <c r="C66" t="s">
         <v>313</v>
       </c>
-      <c r="B66" t="s">
+      <c r="D66" t="s">
         <v>314</v>
       </c>
-      <c r="C66" t="s">
-        <v>315</v>
-      </c>
-      <c r="D66" t="s">
-        <v>316</v>
-      </c>
-      <c r="E66">
-        <v>29400</v>
+      <c r="E66" s="13">
+        <v>29694</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>315</v>
+      </c>
+      <c r="B67" t="s">
+        <v>316</v>
+      </c>
+      <c r="C67" t="s">
         <v>317</v>
       </c>
-      <c r="B67" t="s">
+      <c r="D67" t="s">
         <v>318</v>
       </c>
-      <c r="C67" t="s">
-        <v>319</v>
-      </c>
-      <c r="D67" t="s">
-        <v>320</v>
-      </c>
-      <c r="E67">
-        <v>17640</v>
+      <c r="E67" s="13">
+        <v>17836</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>319</v>
+      </c>
+      <c r="B68" t="s">
+        <v>320</v>
+      </c>
+      <c r="C68" t="s">
         <v>321</v>
       </c>
-      <c r="B68" t="s">
+      <c r="D68" t="s">
         <v>322</v>
       </c>
-      <c r="C68" t="s">
-        <v>323</v>
-      </c>
-      <c r="D68" t="s">
-        <v>324</v>
-      </c>
-      <c r="E68">
-        <v>1764</v>
+      <c r="E68" s="13">
+        <v>1783.6</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>323</v>
+      </c>
+      <c r="B69" t="s">
+        <v>324</v>
+      </c>
+      <c r="C69" t="s">
         <v>325</v>
       </c>
-      <c r="B69" t="s">
+      <c r="D69" t="s">
         <v>326</v>
       </c>
-      <c r="C69" t="s">
-        <v>327</v>
-      </c>
-      <c r="D69" t="s">
-        <v>328</v>
-      </c>
-      <c r="E69">
-        <v>8820</v>
+      <c r="E69" s="13">
+        <v>8908.2000000000007</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>327</v>
+      </c>
+      <c r="B70" t="s">
+        <v>328</v>
+      </c>
+      <c r="C70" t="s">
         <v>329</v>
       </c>
-      <c r="B70" t="s">
+      <c r="D70" t="s">
         <v>330</v>
       </c>
-      <c r="C70" t="s">
-        <v>331</v>
-      </c>
-      <c r="D70" t="s">
-        <v>332</v>
-      </c>
-      <c r="E70">
-        <v>3047.8</v>
+      <c r="E70" s="13">
+        <v>3077.2</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>331</v>
+      </c>
+      <c r="B71" t="s">
+        <v>332</v>
+      </c>
+      <c r="C71" t="s">
         <v>333</v>
       </c>
-      <c r="B71" t="s">
+      <c r="D71" t="s">
         <v>334</v>
       </c>
-      <c r="C71" t="s">
-        <v>335</v>
-      </c>
-      <c r="D71" t="s">
-        <v>336</v>
-      </c>
-      <c r="E71">
-        <v>609.55999999999995</v>
+      <c r="E71" s="13">
+        <v>615.44000000000005</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>335</v>
+      </c>
+      <c r="B72" t="s">
+        <v>336</v>
+      </c>
+      <c r="C72" t="s">
         <v>337</v>
       </c>
-      <c r="B72" t="s">
+      <c r="D72" t="s">
         <v>338</v>
       </c>
-      <c r="C72" t="s">
-        <v>339</v>
-      </c>
-      <c r="D72" t="s">
-        <v>340</v>
-      </c>
-      <c r="E72">
-        <v>1832.6</v>
+      <c r="E72" s="13">
+        <v>1852.2</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>339</v>
+      </c>
+      <c r="B73" t="s">
+        <v>340</v>
+      </c>
+      <c r="C73" t="s">
         <v>341</v>
       </c>
-      <c r="B73" t="s">
+      <c r="D73" t="s">
         <v>342</v>
       </c>
-      <c r="C73" t="s">
-        <v>343</v>
-      </c>
-      <c r="D73" t="s">
-        <v>344</v>
-      </c>
-      <c r="E73">
-        <v>743.82</v>
+      <c r="E73" s="13">
+        <v>751.66</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>343</v>
+      </c>
+      <c r="B74" t="s">
+        <v>344</v>
+      </c>
+      <c r="C74" t="s">
         <v>345</v>
       </c>
-      <c r="B74" t="s">
+      <c r="D74" t="s">
         <v>346</v>
       </c>
-      <c r="C74" t="s">
-        <v>347</v>
-      </c>
-      <c r="D74" t="s">
-        <v>348</v>
-      </c>
-      <c r="E74">
-        <v>40670</v>
+      <c r="E74" s="13">
+        <v>41062</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>347</v>
+      </c>
+      <c r="B75" t="s">
+        <v>348</v>
+      </c>
+      <c r="C75" t="s">
         <v>349</v>
       </c>
-      <c r="B75" t="s">
+      <c r="D75" t="s">
         <v>350</v>
       </c>
-      <c r="C75" t="s">
-        <v>351</v>
-      </c>
-      <c r="D75" t="s">
-        <v>352</v>
-      </c>
-      <c r="E75">
-        <v>151900</v>
+      <c r="E75" s="13">
+        <v>153860</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>351</v>
+      </c>
+      <c r="B76" t="s">
+        <v>352</v>
+      </c>
+      <c r="C76" t="s">
         <v>353</v>
       </c>
-      <c r="B76" t="s">
+      <c r="D76" t="s">
         <v>354</v>
       </c>
-      <c r="C76" t="s">
-        <v>355</v>
-      </c>
-      <c r="D76" t="s">
-        <v>356</v>
-      </c>
-      <c r="E76">
-        <v>76146</v>
+      <c r="E76" s="13">
+        <v>76930</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>355</v>
+      </c>
+      <c r="B77" t="s">
+        <v>356</v>
+      </c>
+      <c r="C77" t="s">
         <v>357</v>
       </c>
-      <c r="B77" t="s">
+      <c r="D77" t="s">
         <v>358</v>
       </c>
-      <c r="C77" t="s">
-        <v>359</v>
-      </c>
-      <c r="D77" t="s">
-        <v>360</v>
-      </c>
-      <c r="E77">
-        <v>3047.8</v>
+      <c r="E77" s="13">
+        <v>3077.2</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>359</v>
+      </c>
+      <c r="B78" t="s">
+        <v>360</v>
+      </c>
+      <c r="C78" t="s">
         <v>361</v>
       </c>
-      <c r="B78" t="s">
+      <c r="D78" t="s">
         <v>362</v>
       </c>
-      <c r="C78" t="s">
-        <v>363</v>
-      </c>
-      <c r="D78" t="s">
-        <v>364</v>
-      </c>
-      <c r="E78">
-        <v>22932</v>
+      <c r="E78" s="13">
+        <v>23128</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>363</v>
+      </c>
+      <c r="B79" t="s">
+        <v>364</v>
+      </c>
+      <c r="C79" t="s">
         <v>365</v>
       </c>
-      <c r="B79" t="s">
+      <c r="D79" t="s">
         <v>366</v>
       </c>
-      <c r="C79" t="s">
-        <v>367</v>
-      </c>
-      <c r="D79" t="s">
-        <v>368</v>
-      </c>
-      <c r="E79">
-        <v>147.97999999999999</v>
+      <c r="E79" s="13">
+        <v>149.94</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>367</v>
+      </c>
+      <c r="B80" t="s">
+        <v>368</v>
+      </c>
+      <c r="C80" t="s">
         <v>369</v>
       </c>
-      <c r="B80" t="s">
+      <c r="D80" t="s">
         <v>370</v>
       </c>
-      <c r="C80" t="s">
-        <v>371</v>
-      </c>
-      <c r="D80" t="s">
-        <v>372</v>
-      </c>
-      <c r="E80">
-        <v>8124.2</v>
+      <c r="E80" s="13">
+        <v>8202.6</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>371</v>
+      </c>
+      <c r="B81" t="s">
+        <v>372</v>
+      </c>
+      <c r="C81" t="s">
         <v>373</v>
       </c>
-      <c r="B81" t="s">
+      <c r="D81" t="s">
         <v>374</v>
       </c>
-      <c r="C81" t="s">
-        <v>375</v>
-      </c>
-      <c r="D81" t="s">
-        <v>376</v>
-      </c>
-      <c r="E81">
-        <v>30478</v>
+      <c r="E81" s="13">
+        <v>30772</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>375</v>
+      </c>
+      <c r="B82" t="s">
+        <v>376</v>
+      </c>
+      <c r="C82" t="s">
         <v>377</v>
       </c>
-      <c r="B82" t="s">
+      <c r="D82" t="s">
         <v>378</v>
       </c>
-      <c r="C82" t="s">
-        <v>379</v>
-      </c>
-      <c r="D82" t="s">
-        <v>380</v>
-      </c>
-      <c r="E82">
-        <v>15190</v>
+      <c r="E82" s="13">
+        <v>15386</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>379</v>
+      </c>
+      <c r="B83" t="s">
+        <v>380</v>
+      </c>
+      <c r="C83" t="s">
         <v>381</v>
       </c>
-      <c r="B83" t="s">
+      <c r="D83" t="s">
         <v>382</v>
       </c>
-      <c r="C83" t="s">
-        <v>383</v>
-      </c>
-      <c r="D83" t="s">
-        <v>384</v>
-      </c>
-      <c r="E83">
-        <v>609.55999999999995</v>
+      <c r="E83" s="13">
+        <v>615.44000000000005</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>383</v>
+      </c>
+      <c r="B84" t="s">
+        <v>384</v>
+      </c>
+      <c r="C84" t="s">
         <v>385</v>
       </c>
-      <c r="B84" t="s">
+      <c r="D84" t="s">
         <v>386</v>
       </c>
-      <c r="C84" t="s">
-        <v>387</v>
-      </c>
-      <c r="D84" t="s">
-        <v>388</v>
-      </c>
-      <c r="E84">
-        <v>4566.8</v>
+      <c r="E84" s="13">
+        <v>4615.8</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>387</v>
+      </c>
+      <c r="B85" t="s">
+        <v>388</v>
+      </c>
+      <c r="C85" t="s">
         <v>389</v>
       </c>
-      <c r="B85" t="s">
+      <c r="D85" t="s">
         <v>390</v>
       </c>
-      <c r="C85" t="s">
-        <v>391</v>
-      </c>
-      <c r="D85" t="s">
-        <v>392</v>
-      </c>
-      <c r="E85">
-        <v>453.74</v>
+      <c r="E85" s="13">
+        <v>458.64</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>391</v>
+      </c>
+      <c r="B86" t="s">
+        <v>392</v>
+      </c>
+      <c r="C86" t="s">
         <v>393</v>
       </c>
-      <c r="B86" t="s">
+      <c r="D86" t="s">
         <v>394</v>
       </c>
-      <c r="C86" t="s">
-        <v>395</v>
-      </c>
-      <c r="D86" t="s">
-        <v>396</v>
-      </c>
-      <c r="E86">
-        <v>24402</v>
+      <c r="E86" s="13">
+        <v>24598</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>395</v>
+      </c>
+      <c r="B87" t="s">
+        <v>396</v>
+      </c>
+      <c r="C87" t="s">
         <v>397</v>
       </c>
-      <c r="B87" t="s">
+      <c r="D87" t="s">
         <v>398</v>
       </c>
-      <c r="C87" t="s">
-        <v>399</v>
-      </c>
-      <c r="D87" t="s">
-        <v>400</v>
-      </c>
-      <c r="E87">
-        <v>91434</v>
+      <c r="E87" s="13">
+        <v>92316</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>399</v>
+      </c>
+      <c r="B88" t="s">
+        <v>400</v>
+      </c>
+      <c r="C88" t="s">
         <v>401</v>
       </c>
-      <c r="B88" t="s">
+      <c r="D88" t="s">
         <v>402</v>
       </c>
-      <c r="C88" t="s">
-        <v>403</v>
-      </c>
-      <c r="D88" t="s">
-        <v>404</v>
-      </c>
-      <c r="E88">
-        <v>45668</v>
+      <c r="E88" s="13">
+        <v>46158</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>403</v>
+      </c>
+      <c r="B89" t="s">
+        <v>404</v>
+      </c>
+      <c r="C89" t="s">
         <v>405</v>
       </c>
-      <c r="B89" t="s">
+      <c r="D89" t="s">
         <v>406</v>
       </c>
-      <c r="C89" t="s">
-        <v>407</v>
-      </c>
-      <c r="D89" t="s">
-        <v>408</v>
-      </c>
-      <c r="E89">
-        <v>1832.6</v>
+      <c r="E89" s="13">
+        <v>1852.2</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>407</v>
+      </c>
+      <c r="B90" t="s">
+        <v>408</v>
+      </c>
+      <c r="C90" t="s">
         <v>409</v>
       </c>
-      <c r="B90" t="s">
+      <c r="D90" t="s">
         <v>410</v>
       </c>
-      <c r="C90" t="s">
-        <v>411</v>
-      </c>
-      <c r="D90" t="s">
-        <v>412</v>
-      </c>
-      <c r="E90">
-        <v>13720</v>
+      <c r="E90" s="13">
+        <v>13818</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>411</v>
+      </c>
+      <c r="B91" t="s">
+        <v>412</v>
+      </c>
+      <c r="C91" t="s">
         <v>413</v>
       </c>
-      <c r="B91" t="s">
+      <c r="D91" t="s">
         <v>414</v>
       </c>
-      <c r="C91" t="s">
-        <v>415</v>
-      </c>
-      <c r="D91" t="s">
-        <v>416</v>
-      </c>
-      <c r="E91">
-        <v>543.9</v>
+      <c r="E91" s="13">
+        <v>548.79999999999995</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>415</v>
+      </c>
+      <c r="B92" t="s">
+        <v>416</v>
+      </c>
+      <c r="C92" t="s">
         <v>417</v>
       </c>
-      <c r="B92" t="s">
+      <c r="D92" t="s">
         <v>418</v>
       </c>
-      <c r="C92" t="s">
-        <v>419</v>
-      </c>
-      <c r="D92" t="s">
-        <v>420</v>
-      </c>
-      <c r="E92">
-        <v>29750</v>
+      <c r="E92" s="13">
+        <v>30030</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>419</v>
+      </c>
+      <c r="B93" t="s">
+        <v>420</v>
+      </c>
+      <c r="C93" t="s">
         <v>421</v>
       </c>
-      <c r="B93" t="s">
+      <c r="D93" t="s">
         <v>422</v>
       </c>
-      <c r="C93" t="s">
-        <v>423</v>
-      </c>
-      <c r="D93" t="s">
-        <v>424</v>
-      </c>
-      <c r="E93">
-        <v>1862</v>
+      <c r="E93" s="13">
+        <v>1876</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>423</v>
+      </c>
+      <c r="B94" t="s">
+        <v>424</v>
+      </c>
+      <c r="C94" t="s">
         <v>425</v>
       </c>
-      <c r="B94" t="s">
+      <c r="D94" t="s">
         <v>426</v>
       </c>
-      <c r="C94" t="s">
-        <v>427</v>
-      </c>
-      <c r="D94" t="s">
-        <v>428</v>
-      </c>
-      <c r="E94">
-        <v>16730</v>
+      <c r="E94" s="13">
+        <v>16870</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>427</v>
+      </c>
+      <c r="B95" t="s">
+        <v>428</v>
+      </c>
+      <c r="C95" t="s">
         <v>429</v>
       </c>
-      <c r="B95" t="s">
+      <c r="D95" t="s">
         <v>430</v>
       </c>
-      <c r="C95" t="s">
-        <v>431</v>
-      </c>
-      <c r="D95" t="s">
-        <v>432</v>
-      </c>
-      <c r="E95">
-        <v>108.5</v>
+      <c r="E95" s="13">
+        <v>109.2</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>431</v>
+      </c>
+      <c r="B96" t="s">
+        <v>432</v>
+      </c>
+      <c r="C96" t="s">
         <v>433</v>
       </c>
-      <c r="B96" t="s">
+      <c r="D96" t="s">
         <v>434</v>
       </c>
-      <c r="C96" t="s">
-        <v>435</v>
-      </c>
-      <c r="D96" t="s">
-        <v>436</v>
-      </c>
-      <c r="E96">
-        <v>5943</v>
+      <c r="E96" s="13">
+        <v>5999</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>435</v>
+      </c>
+      <c r="B97" t="s">
+        <v>436</v>
+      </c>
+      <c r="C97" t="s">
         <v>437</v>
       </c>
-      <c r="B97" t="s">
+      <c r="D97" t="s">
         <v>438</v>
       </c>
-      <c r="C97" t="s">
-        <v>439</v>
-      </c>
-      <c r="D97" t="s">
-        <v>440</v>
-      </c>
-      <c r="E97">
-        <v>371.7</v>
+      <c r="E97" s="13">
+        <v>375.2</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>439</v>
+      </c>
+      <c r="B98" t="s">
+        <v>440</v>
+      </c>
+      <c r="C98" t="s">
         <v>441</v>
       </c>
-      <c r="B98" t="s">
+      <c r="D98" t="s">
         <v>442</v>
       </c>
-      <c r="C98" t="s">
-        <v>443</v>
-      </c>
-      <c r="D98" t="s">
-        <v>444</v>
-      </c>
-      <c r="E98">
-        <v>3346</v>
+      <c r="E98" s="13">
+        <v>3374</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>443</v>
+      </c>
+      <c r="B99" t="s">
+        <v>444</v>
+      </c>
+      <c r="C99" t="s">
         <v>445</v>
       </c>
-      <c r="B99" t="s">
+      <c r="D99" t="s">
         <v>446</v>
       </c>
-      <c r="C99" t="s">
-        <v>447</v>
-      </c>
-      <c r="D99" t="s">
-        <v>448</v>
-      </c>
-      <c r="E99">
-        <v>326.2</v>
+      <c r="E99" s="13">
+        <v>329</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>447</v>
+      </c>
+      <c r="B100" t="s">
+        <v>448</v>
+      </c>
+      <c r="C100" t="s">
         <v>449</v>
       </c>
-      <c r="B100" t="s">
+      <c r="D100" t="s">
         <v>450</v>
       </c>
-      <c r="C100" t="s">
-        <v>451</v>
-      </c>
-      <c r="D100" t="s">
-        <v>452</v>
-      </c>
-      <c r="E100">
-        <v>17850</v>
+      <c r="E100" s="13">
+        <v>17990</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>451</v>
+      </c>
+      <c r="B101" t="s">
+        <v>452</v>
+      </c>
+      <c r="C101" t="s">
         <v>453</v>
       </c>
-      <c r="B101" t="s">
+      <c r="D101" t="s">
         <v>454</v>
       </c>
-      <c r="C101" t="s">
-        <v>455</v>
-      </c>
-      <c r="D101" t="s">
-        <v>456</v>
-      </c>
-      <c r="E101">
-        <v>1120</v>
+      <c r="E101" s="13">
+        <v>1127</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>455</v>
+      </c>
+      <c r="B102" t="s">
+        <v>456</v>
+      </c>
+      <c r="C102" t="s">
         <v>457</v>
       </c>
-      <c r="B102" t="s">
+      <c r="D102" t="s">
         <v>458</v>
       </c>
-      <c r="C102" t="s">
-        <v>459</v>
-      </c>
-      <c r="D102" t="s">
-        <v>460</v>
-      </c>
-      <c r="E102">
-        <v>10080</v>
+      <c r="E102" s="13">
+        <v>10150</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>459</v>
+      </c>
+      <c r="B103" t="s">
+        <v>460</v>
+      </c>
+      <c r="C103" t="s">
         <v>461</v>
       </c>
-      <c r="B103" t="s">
+      <c r="D103" t="s">
         <v>462</v>
       </c>
-      <c r="C103" t="s">
-        <v>463</v>
-      </c>
-      <c r="D103" t="s">
-        <v>464</v>
-      </c>
-      <c r="E103">
-        <v>2310</v>
+      <c r="E103" s="13">
+        <v>2331</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>463</v>
+      </c>
+      <c r="B104" t="s">
+        <v>464</v>
+      </c>
+      <c r="C104" t="s">
         <v>465</v>
       </c>
-      <c r="B104" t="s">
+      <c r="D104" t="s">
         <v>466</v>
       </c>
-      <c r="C104" t="s">
-        <v>467</v>
-      </c>
-      <c r="D104" t="s">
-        <v>468</v>
-      </c>
-      <c r="E104">
-        <v>13370</v>
+      <c r="E104" s="13">
+        <v>13510</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>467</v>
+      </c>
+      <c r="B105" t="s">
+        <v>468</v>
+      </c>
+      <c r="C105" t="s">
         <v>469</v>
       </c>
-      <c r="B105" t="s">
+      <c r="D105" t="s">
         <v>470</v>
       </c>
-      <c r="C105" t="s">
-        <v>471</v>
-      </c>
-      <c r="D105" t="s">
-        <v>472</v>
-      </c>
-      <c r="E105">
-        <v>460.6</v>
+      <c r="E105" s="13">
+        <v>464.8</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>471</v>
+      </c>
+      <c r="B106" t="s">
+        <v>472</v>
+      </c>
+      <c r="C106" t="s">
         <v>473</v>
       </c>
-      <c r="B106" t="s">
+      <c r="D106" t="s">
         <v>474</v>
       </c>
-      <c r="C106" t="s">
-        <v>475</v>
-      </c>
-      <c r="D106" t="s">
-        <v>476</v>
-      </c>
-      <c r="E106">
-        <v>2674</v>
+      <c r="E106" s="13">
+        <v>2695</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>475</v>
+      </c>
+      <c r="B107" t="s">
+        <v>476</v>
+      </c>
+      <c r="C107" t="s">
         <v>477</v>
       </c>
-      <c r="B107" t="s">
+      <c r="D107" t="s">
         <v>478</v>
       </c>
-      <c r="C107" t="s">
-        <v>479</v>
-      </c>
-      <c r="D107" t="s">
-        <v>480</v>
-      </c>
-      <c r="E107">
-        <v>1379</v>
+      <c r="E107" s="13">
+        <v>1393</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>479</v>
+      </c>
+      <c r="B108" t="s">
+        <v>480</v>
+      </c>
+      <c r="C108" t="s">
         <v>481</v>
       </c>
-      <c r="B108" t="s">
+      <c r="D108" t="s">
         <v>482</v>
       </c>
-      <c r="C108" t="s">
-        <v>483</v>
-      </c>
-      <c r="D108" t="s">
-        <v>484</v>
-      </c>
-      <c r="E108">
-        <v>7980</v>
+      <c r="E108" s="13">
+        <v>8050</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>483</v>
+      </c>
+      <c r="B109" t="s">
+        <v>484</v>
+      </c>
+      <c r="C109" t="s">
         <v>485</v>
       </c>
-      <c r="B109" t="s">
+      <c r="D109" t="s">
         <v>486</v>
       </c>
-      <c r="C109" t="s">
-        <v>487</v>
-      </c>
-      <c r="D109" t="s">
-        <v>488</v>
-      </c>
-      <c r="E109">
-        <v>1806</v>
+      <c r="E109" s="13">
+        <v>1820</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>487</v>
+      </c>
+      <c r="B110" t="s">
+        <v>488</v>
+      </c>
+      <c r="C110" t="s">
         <v>489</v>
       </c>
-      <c r="B110" t="s">
+      <c r="D110" t="s">
         <v>490</v>
       </c>
-      <c r="C110" t="s">
-        <v>491</v>
-      </c>
-      <c r="D110" t="s">
-        <v>492</v>
-      </c>
-      <c r="E110">
-        <v>10430</v>
+      <c r="E110" s="13">
+        <v>10500</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>491</v>
+      </c>
+      <c r="B111" t="s">
+        <v>492</v>
+      </c>
+      <c r="C111" t="s">
         <v>493</v>
       </c>
-      <c r="B111" t="s">
+      <c r="D111" t="s">
         <v>494</v>
       </c>
-      <c r="C111" t="s">
-        <v>495</v>
-      </c>
-      <c r="D111" t="s">
-        <v>496</v>
-      </c>
-      <c r="E111">
-        <v>361.2</v>
+      <c r="E111" s="13">
+        <v>364.7</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>495</v>
+      </c>
+      <c r="B112" t="s">
+        <v>496</v>
+      </c>
+      <c r="C112" t="s">
         <v>497</v>
       </c>
-      <c r="B112" t="s">
+      <c r="D112" t="s">
         <v>498</v>
       </c>
-      <c r="C112" t="s">
-        <v>499</v>
-      </c>
-      <c r="D112" t="s">
-        <v>500</v>
-      </c>
-      <c r="E112">
-        <v>2079</v>
+      <c r="E112" s="13">
+        <v>2100</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>499</v>
+      </c>
+      <c r="B113" t="s">
+        <v>500</v>
+      </c>
+      <c r="C113" t="s">
         <v>501</v>
       </c>
-      <c r="B113" t="s">
+      <c r="D113" t="s">
         <v>502</v>
       </c>
-      <c r="C113" t="s">
-        <v>503</v>
-      </c>
-      <c r="D113" t="s">
-        <v>504</v>
-      </c>
-      <c r="E113">
-        <v>1085</v>
+      <c r="E113" s="13">
+        <v>1092</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>503</v>
+      </c>
+      <c r="B114" t="s">
+        <v>504</v>
+      </c>
+      <c r="C114" t="s">
         <v>505</v>
       </c>
-      <c r="B114" t="s">
+      <c r="D114" t="s">
         <v>506</v>
       </c>
-      <c r="C114" t="s">
-        <v>507</v>
-      </c>
-      <c r="D114" t="s">
-        <v>508</v>
-      </c>
-      <c r="E114">
-        <v>6244</v>
+      <c r="E114" s="13">
+        <v>6300</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>507</v>
+      </c>
+      <c r="B115" t="s">
+        <v>508</v>
+      </c>
+      <c r="C115" t="s">
         <v>509</v>
       </c>
-      <c r="B115" t="s">
+      <c r="D115" t="s">
         <v>510</v>
       </c>
-      <c r="C115" t="s">
-        <v>511</v>
-      </c>
-      <c r="D115" t="s">
-        <v>512</v>
-      </c>
-      <c r="E115">
-        <v>599.9</v>
+      <c r="E115" s="13">
+        <v>605.5</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>511</v>
+      </c>
+      <c r="B116" t="s">
+        <v>512</v>
+      </c>
+      <c r="C116" t="s">
         <v>513</v>
       </c>
-      <c r="B116" t="s">
+      <c r="D116" t="s">
         <v>514</v>
       </c>
-      <c r="C116" t="s">
-        <v>515</v>
-      </c>
-      <c r="D116" t="s">
-        <v>516</v>
-      </c>
-      <c r="E116">
-        <v>3850</v>
+      <c r="E116" s="13">
+        <v>3885</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>515</v>
+      </c>
+      <c r="B117" t="s">
+        <v>516</v>
+      </c>
+      <c r="C117" t="s">
         <v>517</v>
       </c>
-      <c r="B117" t="s">
+      <c r="D117" t="s">
         <v>518</v>
       </c>
-      <c r="C117" t="s">
-        <v>519</v>
-      </c>
-      <c r="D117" t="s">
-        <v>520</v>
-      </c>
-      <c r="E117">
-        <v>120.4</v>
+      <c r="E117" s="13">
+        <v>121.8</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>519</v>
+      </c>
+      <c r="B118" t="s">
+        <v>520</v>
+      </c>
+      <c r="C118" t="s">
         <v>521</v>
       </c>
-      <c r="B118" t="s">
+      <c r="D118" t="s">
         <v>522</v>
       </c>
-      <c r="C118" t="s">
-        <v>523</v>
-      </c>
-      <c r="D118" t="s">
-        <v>524</v>
-      </c>
-      <c r="E118">
-        <v>770</v>
+      <c r="E118" s="13">
+        <v>777</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>523</v>
+      </c>
+      <c r="B119" t="s">
+        <v>524</v>
+      </c>
+      <c r="C119" t="s">
         <v>525</v>
       </c>
-      <c r="B119" t="s">
+      <c r="D119" t="s">
         <v>526</v>
       </c>
-      <c r="C119" t="s">
-        <v>527</v>
-      </c>
-      <c r="D119" t="s">
-        <v>528</v>
-      </c>
-      <c r="E119">
-        <v>360.5</v>
+      <c r="E119" s="13">
+        <v>364</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>527</v>
+      </c>
+      <c r="B120" t="s">
+        <v>528</v>
+      </c>
+      <c r="C120" t="s">
         <v>529</v>
       </c>
-      <c r="B120" t="s">
+      <c r="D120" t="s">
         <v>530</v>
       </c>
-      <c r="C120" t="s">
-        <v>531</v>
-      </c>
-      <c r="D120" t="s">
-        <v>532</v>
-      </c>
-      <c r="E120">
-        <v>2310</v>
+      <c r="E120" s="13">
+        <v>2331</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>531</v>
+      </c>
+      <c r="B121" t="s">
+        <v>532</v>
+      </c>
+      <c r="C121" t="s">
         <v>533</v>
       </c>
-      <c r="B121" t="s">
+      <c r="D121" t="s">
         <v>534</v>
       </c>
-      <c r="C121" t="s">
-        <v>535</v>
-      </c>
-      <c r="D121" t="s">
-        <v>536</v>
-      </c>
-      <c r="E121">
-        <v>298.89999999999998</v>
+      <c r="E121" s="13">
+        <v>301.83999999999997</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>535</v>
+      </c>
+      <c r="B122" t="s">
+        <v>536</v>
+      </c>
+      <c r="C122" t="s">
         <v>537</v>
       </c>
-      <c r="B122" t="s">
+      <c r="D122" t="s">
         <v>538</v>
       </c>
-      <c r="C122" t="s">
-        <v>539</v>
-      </c>
-      <c r="D122" t="s">
-        <v>540</v>
-      </c>
-      <c r="E122">
-        <v>9.8000000000000007</v>
+      <c r="E122" s="13">
+        <v>9.9</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>539</v>
+      </c>
+      <c r="B123" t="s">
+        <v>540</v>
+      </c>
+      <c r="C123" t="s">
         <v>541</v>
       </c>
-      <c r="B123" t="s">
+      <c r="D123" t="s">
         <v>542</v>
       </c>
-      <c r="C123" t="s">
-        <v>543</v>
-      </c>
-      <c r="D123" t="s">
-        <v>544</v>
-      </c>
-      <c r="E123">
-        <v>44.1</v>
+      <c r="E123" s="13">
+        <v>22.25</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="B124" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="C124" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="D124" t="s">
-        <v>718</v>
-      </c>
-      <c r="E124">
-        <v>257.74</v>
+        <v>712</v>
+      </c>
+      <c r="E124" s="13">
+        <v>260.68</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="B125" t="s">
+        <v>709</v>
+      </c>
+      <c r="C125" t="s">
+        <v>716</v>
+      </c>
+      <c r="D125" t="s">
         <v>715</v>
       </c>
-      <c r="C125" t="s">
-        <v>722</v>
-      </c>
-      <c r="D125" t="s">
-        <v>721</v>
-      </c>
-      <c r="E125">
-        <v>2666.4</v>
+      <c r="E125" s="13">
+        <v>2657.6</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="A126" s="12" t="s">
+        <v>964</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>965</v>
+      </c>
+      <c r="D126" s="12" t="s">
+        <v>966</v>
+      </c>
+      <c r="E126" s="13">
+        <v>57330</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="12" t="s">
+        <v>967</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>968</v>
+      </c>
+      <c r="D127" s="12" t="s">
+        <v>969</v>
+      </c>
+      <c r="E127" s="13">
+        <v>28714</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="12" t="s">
+        <v>741</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>742</v>
+      </c>
+      <c r="D128" s="12" t="s">
+        <v>745</v>
+      </c>
+      <c r="E128" s="13">
+        <v>1107.4000000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="12" t="s">
+        <v>743</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="D129" s="12" t="s">
+        <v>746</v>
+      </c>
+      <c r="E129" s="13">
+        <v>8653.4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="12" t="s">
+        <v>747</v>
+      </c>
+      <c r="B130" s="12" t="s">
         <v>737</v>
       </c>
-      <c r="B126" t="s">
-        <v>738</v>
-      </c>
-      <c r="C126" t="s">
-        <v>740</v>
-      </c>
-      <c r="D126" t="s">
-        <v>739</v>
-      </c>
-      <c r="E126">
-        <v>6024.05</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>756</v>
-      </c>
-      <c r="B127" t="s">
-        <v>746</v>
-      </c>
-      <c r="D127" t="s">
-        <v>757</v>
-      </c>
-      <c r="E127">
-        <v>3205</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>750</v>
-      </c>
-      <c r="B128" t="s">
-        <v>751</v>
-      </c>
-      <c r="D128" t="s">
-        <v>754</v>
-      </c>
-      <c r="E128">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>752</v>
-      </c>
-      <c r="B129" t="s">
-        <v>753</v>
-      </c>
-      <c r="D129" t="s">
-        <v>755</v>
-      </c>
-      <c r="E129">
-        <v>8563.7000000000007</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="10" t="s">
-        <v>794</v>
-      </c>
-      <c r="B130" t="s">
-        <v>790</v>
-      </c>
-      <c r="D130" t="s">
-        <v>791</v>
-      </c>
-      <c r="E130">
-        <v>5200</v>
+      <c r="D130" s="12" t="s">
+        <v>748</v>
+      </c>
+      <c r="E130" s="13">
+        <v>2881.2</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="B131" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
       <c r="D131" t="s">
-        <v>793</v>
-      </c>
-      <c r="E131">
-        <v>1366.2</v>
-      </c>
+        <v>782</v>
+      </c>
+      <c r="E131" s="13">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="B132" t="s">
+        <v>783</v>
+      </c>
+      <c r="D132" t="s">
+        <v>784</v>
+      </c>
+      <c r="E132" s="13">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="12" t="s">
+        <v>970</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>971</v>
+      </c>
+      <c r="C133" s="12" t="s">
+        <v>982</v>
+      </c>
+      <c r="D133" s="12" t="s">
+        <v>983</v>
+      </c>
+      <c r="E133" s="13"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="12" t="s">
+        <v>972</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>973</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>984</v>
+      </c>
+      <c r="D134" s="12" t="s">
+        <v>985</v>
+      </c>
+      <c r="E134" s="13"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="12" t="s">
+        <v>974</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>975</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>986</v>
+      </c>
+      <c r="D135" s="12" t="s">
+        <v>976</v>
+      </c>
+      <c r="E135" s="13"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="12" t="s">
+        <v>977</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>959</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>987</v>
+      </c>
+      <c r="D136" s="12" t="s">
+        <v>978</v>
+      </c>
+      <c r="E136" s="13"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="12" t="s">
+        <v>979</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>980</v>
+      </c>
+      <c r="C137" s="12" t="s">
+        <v>988</v>
+      </c>
+      <c r="D137" s="12" t="s">
+        <v>981</v>
+      </c>
+      <c r="E137" s="13"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="12" t="s">
+        <v>729</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>731</v>
+      </c>
+      <c r="D138" s="12" t="s">
+        <v>989</v>
+      </c>
+      <c r="E138" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8189,162 +10301,162 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
     </row>
   </sheetData>
